--- a/Projects/CCNAYARMX/Data/CCNayarTemplate2020v0.9.4.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplate2020v0.9.4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -97,6 +97,10 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -108,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="433">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -1870,6 +1874,12 @@
     <t xml:space="preserve">Component KPIs</t>
   </si>
   <si>
+    <t xml:space="preserve">score_based_result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">composition_based_result</t>
+  </si>
+  <si>
     <t xml:space="preserve">Component aggregation</t>
   </si>
   <si>
@@ -1901,6 +1911,9 @@
   </si>
   <si>
     <t xml:space="preserve">Bloques Colas 55%,Bloques Sabores 25%,Frentes Cattman,Acomodo por Bloques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y</t>
   </si>
   <si>
     <t xml:space="preserve">sum</t>
@@ -2918,29 +2931,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C75" activeCellId="0" sqref="C75"/>
+      <selection pane="bottomLeft" activeCell="A86" activeCellId="0" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="74.0202429149798"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.17004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="90.8380566801619"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="37.919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="175.676113360324"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="76.6963562753036"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="94.1578947368421"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.2064777327935"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="182.210526315789"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.2064777327935"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7125506072875"/>
   </cols>
@@ -2980,7 +2993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="true" ht="61.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="8" customFormat="true" ht="61.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -3008,7 +3021,7 @@
       </c>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" s="12" customFormat="true" ht="61.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="12" customFormat="true" ht="61.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
@@ -3031,7 +3044,7 @@
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="41.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="41.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
@@ -3058,7 +3071,7 @@
       </c>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="28.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
@@ -3085,7 +3098,7 @@
       </c>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="68.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="68.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
@@ -3112,7 +3125,7 @@
       </c>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
@@ -3139,7 +3152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="51" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
@@ -3166,7 +3179,7 @@
       </c>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="28.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
@@ -3193,7 +3206,7 @@
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
@@ -3220,7 +3233,7 @@
       </c>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
@@ -3245,7 +3258,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="48" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -3276,7 +3289,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="48" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>11</v>
       </c>
@@ -3299,7 +3312,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" customFormat="false" ht="145" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="145" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>52</v>
       </c>
@@ -3330,7 +3343,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="145" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="145" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>12</v>
       </c>
@@ -3357,7 +3370,7 @@
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" customFormat="false" ht="125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="125" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>13</v>
       </c>
@@ -3384,7 +3397,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="125" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>14</v>
       </c>
@@ -3411,7 +3424,7 @@
       </c>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="32" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>15</v>
       </c>
@@ -3438,7 +3451,7 @@
       </c>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <v>16</v>
       </c>
@@ -3463,7 +3476,7 @@
       </c>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>17</v>
       </c>
@@ -3488,7 +3501,7 @@
       </c>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>18</v>
       </c>
@@ -3513,7 +3526,7 @@
       </c>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <v>19</v>
       </c>
@@ -3538,7 +3551,7 @@
       </c>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
         <v>20</v>
       </c>
@@ -3563,7 +3576,7 @@
       </c>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
         <v>21</v>
       </c>
@@ -3588,7 +3601,7 @@
       </c>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
         <v>22</v>
       </c>
@@ -3615,7 +3628,7 @@
       </c>
       <c r="K25" s="10"/>
     </row>
-    <row r="26" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>83</v>
       </c>
@@ -3638,7 +3651,7 @@
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
         <v>23</v>
       </c>
@@ -3665,7 +3678,7 @@
       </c>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="39" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
         <v>24</v>
       </c>
@@ -3694,7 +3707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="28.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
         <v>25</v>
       </c>
@@ -3721,7 +3734,7 @@
       </c>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
         <v>26</v>
       </c>
@@ -3748,7 +3761,7 @@
       </c>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>96</v>
       </c>
@@ -3771,7 +3784,7 @@
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" customFormat="false" ht="41.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="41.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
         <v>27</v>
       </c>
@@ -3798,7 +3811,7 @@
       </c>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="28.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
         <v>28</v>
       </c>
@@ -3827,7 +3840,7 @@
       </c>
       <c r="K33" s="10"/>
     </row>
-    <row r="34" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="39" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
         <v>29</v>
       </c>
@@ -3856,7 +3869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="28.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
         <v>30</v>
       </c>
@@ -3885,7 +3898,7 @@
       </c>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
         <v>31</v>
       </c>
@@ -3914,7 +3927,7 @@
       </c>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>108</v>
       </c>
@@ -3939,7 +3952,7 @@
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" customFormat="false" ht="41.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="41.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
         <v>32</v>
       </c>
@@ -3968,7 +3981,7 @@
       </c>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="28.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
         <v>33</v>
       </c>
@@ -3997,7 +4010,7 @@
       </c>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="28.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
         <v>34</v>
       </c>
@@ -4030,7 +4043,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
         <v>35</v>
       </c>
@@ -4061,7 +4074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
         <v>36</v>
       </c>
@@ -4094,7 +4107,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
         <v>37</v>
       </c>
@@ -4117,7 +4130,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
         <v>38</v>
       </c>
@@ -4148,7 +4161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
         <v>39</v>
       </c>
@@ -4171,7 +4184,7 @@
       <c r="J45" s="19"/>
       <c r="K45" s="19"/>
     </row>
-    <row r="46" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
         <v>40</v>
       </c>
@@ -4198,7 +4211,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
         <v>41</v>
       </c>
@@ -4225,7 +4238,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
         <v>42</v>
       </c>
@@ -4252,7 +4265,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
         <v>43</v>
       </c>
@@ -4279,7 +4292,7 @@
       <c r="J49" s="19"/>
       <c r="K49" s="19"/>
     </row>
-    <row r="50" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
         <v>44</v>
       </c>
@@ -4306,7 +4319,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
         <v>45</v>
       </c>
@@ -4329,7 +4342,7 @@
       <c r="J51" s="19"/>
       <c r="K51" s="19"/>
     </row>
-    <row r="52" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
         <v>46</v>
       </c>
@@ -4356,7 +4369,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="30" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
         <v>47</v>
       </c>
@@ -4383,7 +4396,7 @@
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="30" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
         <v>48</v>
       </c>
@@ -4410,7 +4423,7 @@
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="30" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
         <v>49</v>
       </c>
@@ -4437,7 +4450,7 @@
       <c r="J55" s="19"/>
       <c r="K55" s="19"/>
     </row>
-    <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
         <v>50</v>
       </c>
@@ -4464,7 +4477,7 @@
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
     </row>
-    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
         <v>51</v>
       </c>
@@ -4489,7 +4502,7 @@
       <c r="J57" s="19"/>
       <c r="K57" s="19"/>
     </row>
-    <row r="58" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="21.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
         <v>52</v>
       </c>
@@ -4516,7 +4529,7 @@
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="26.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
         <v>53</v>
       </c>
@@ -4543,7 +4556,7 @@
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="27" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
         <v>54</v>
       </c>
@@ -4570,7 +4583,7 @@
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="27" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
         <v>55</v>
       </c>
@@ -4597,7 +4610,7 @@
       <c r="J61" s="19"/>
       <c r="K61" s="19"/>
     </row>
-    <row r="62" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
         <v>56</v>
       </c>
@@ -4624,7 +4637,7 @@
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
         <v>57</v>
       </c>
@@ -4647,7 +4660,7 @@
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
     </row>
-    <row r="64" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
         <v>58</v>
       </c>
@@ -4674,7 +4687,7 @@
       <c r="J64" s="10"/>
       <c r="K64" s="10"/>
     </row>
-    <row r="65" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
         <v>59</v>
       </c>
@@ -4701,7 +4714,7 @@
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
     </row>
-    <row r="66" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
         <v>60</v>
       </c>
@@ -4728,7 +4741,7 @@
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
         <v>61</v>
       </c>
@@ -4755,7 +4768,7 @@
       <c r="J67" s="19"/>
       <c r="K67" s="19"/>
     </row>
-    <row r="68" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="n">
         <v>62</v>
       </c>
@@ -4782,7 +4795,7 @@
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
     </row>
-    <row r="69" s="30" customFormat="true" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" s="30" customFormat="true" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="n">
         <v>63</v>
       </c>
@@ -4805,7 +4818,7 @@
       <c r="J69" s="29"/>
       <c r="K69" s="29"/>
     </row>
-    <row r="70" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="n">
         <v>64</v>
       </c>
@@ -4828,7 +4841,7 @@
       <c r="J70" s="19"/>
       <c r="K70" s="19"/>
     </row>
-    <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="n">
         <v>65</v>
       </c>
@@ -4859,7 +4872,7 @@
       </c>
       <c r="K71" s="19"/>
     </row>
-    <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="n">
         <v>66</v>
       </c>
@@ -4890,7 +4903,7 @@
       </c>
       <c r="K72" s="19"/>
     </row>
-    <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="n">
         <v>67</v>
       </c>
@@ -4921,7 +4934,7 @@
       </c>
       <c r="K73" s="19"/>
     </row>
-    <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="n">
         <v>68</v>
       </c>
@@ -4952,7 +4965,7 @@
       </c>
       <c r="K74" s="19"/>
     </row>
-    <row r="75" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="n">
         <v>69</v>
       </c>
@@ -4985,7 +4998,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="n">
         <v>70</v>
       </c>
@@ -5008,7 +5021,7 @@
       <c r="J76" s="29"/>
       <c r="K76" s="29"/>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="n">
         <v>71</v>
       </c>
@@ -5037,7 +5050,7 @@
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="n">
         <v>72</v>
       </c>
@@ -5066,7 +5079,7 @@
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
     </row>
-    <row r="79" s="35" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" s="35" customFormat="true" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="n">
         <v>73</v>
       </c>
@@ -5091,7 +5104,7 @@
       <c r="J79" s="19"/>
       <c r="K79" s="19"/>
     </row>
-    <row r="80" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="n">
         <v>74</v>
       </c>
@@ -5120,7 +5133,7 @@
       <c r="J80" s="19"/>
       <c r="K80" s="19"/>
     </row>
-    <row r="81" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="n">
         <v>75</v>
       </c>
@@ -5180,7 +5193,7 @@
       <c r="J82" s="19"/>
       <c r="K82" s="19"/>
     </row>
-    <row r="83" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="28.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="n">
         <v>77</v>
       </c>
@@ -5205,7 +5218,7 @@
       <c r="J83" s="19"/>
       <c r="K83" s="19"/>
     </row>
-    <row r="84" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="n">
         <v>78</v>
       </c>
@@ -5230,7 +5243,7 @@
       <c r="J84" s="19"/>
       <c r="K84" s="19"/>
     </row>
-    <row r="85" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="10" t="n">
         <v>79</v>
       </c>
@@ -5252,7 +5265,13 @@
       <c r="K85" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K85"/>
+  <autoFilter ref="A1:K85">
+    <filterColumn colId="3">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Ejecucion Sombra"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="I18:I24"/>
   </mergeCells>
@@ -5274,16 +5293,16 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.3846153846154"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9230769230769"/>
     <col collapsed="false" hidden="false" max="1017" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -5376,17 +5395,17 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.919028340081"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.3846153846154"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.2064777327935"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="1019" min="7" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.78542510121457"/>
   </cols>
@@ -5669,21 +5688,21 @@
   </sheetPr>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="82.4817813765182"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="73.3765182186235"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="49.8097165991903"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="60.9514170040486"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="85.3724696356275"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="75.9473684210526"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="62.9878542510121"/>
     <col collapsed="false" hidden="false" max="1017" min="12" style="59" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -5807,21 +5826,21 @@
   </sheetPr>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="103.582995951417"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="72.4129554655871"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="107.226720647773"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="74.9838056680162"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.5263157894737"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="35.1336032388664"/>
     <col collapsed="false" hidden="false" max="10" min="9" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="60.5222672064777"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="62.663967611336"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6008,28 +6027,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.4898785425101"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.0971659919028"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="128.862348178138"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="102.728744939271"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="41.3481781376518"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="133.46963562753"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="106.477732793522"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6064,12 +6083,18 @@
         <v>373</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>265</v>
       </c>
     </row>
@@ -6091,21 +6116,23 @@
         <v>14</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O2" s="3"/>
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="n">
         <v>6</v>
       </c>
@@ -6123,18 +6150,20 @@
         <v>14</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="10"/>
+      <c r="O3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="n">
@@ -6154,18 +6183,20 @@
         <v>14</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10" t="s">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="10"/>
+      <c r="O4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="n">
@@ -6185,24 +6216,26 @@
         <v>14</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="J5" s="10" t="n">
+        <v>380</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="L5" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="M5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="N5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="10"/>
+      <c r="O5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="n">
@@ -6222,24 +6255,26 @@
         <v>14</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="J6" s="10" t="n">
+        <v>382</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="L6" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="M6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="N6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="10"/>
+      <c r="O6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
@@ -6259,18 +6294,22 @@
         <v>14</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
+        <v>383</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="5" t="s">
+        <v>385</v>
+      </c>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="n">
         <v>37</v>
       </c>
@@ -6288,18 +6327,20 @@
         <v>14</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+        <v>386</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="10"/>
-    </row>
-    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>77</v>
       </c>
@@ -6319,16 +6360,18 @@
         <v>14</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>382</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
+      <c r="J9" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
       <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
@@ -6350,16 +6393,20 @@
         <v>14</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
       <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
     </row>
     <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
@@ -6381,18 +6428,20 @@
         <v>14</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>382</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
+      <c r="J11" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
       <c r="M11" s="19"/>
-    </row>
-    <row r="12" s="30" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+    </row>
+    <row r="12" s="30" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="n">
         <v>63</v>
       </c>
@@ -6410,18 +6459,20 @@
         <v>14</v>
       </c>
       <c r="G12" s="77" t="s">
-        <v>387</v>
-      </c>
-      <c r="H12" s="77" t="s">
-        <v>382</v>
-      </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
+        <v>390</v>
+      </c>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77" t="s">
+        <v>385</v>
+      </c>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
-    </row>
-    <row r="13" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+    </row>
+    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="29" t="n">
         <v>64</v>
       </c>
@@ -6439,18 +6490,20 @@
         <v>14</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="H13" s="77" t="s">
-        <v>382</v>
-      </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
+        <v>391</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="77" t="s">
+        <v>385</v>
+      </c>
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
-    </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="29" t="n">
         <v>70</v>
       </c>
@@ -6468,16 +6521,18 @@
         <v>14</v>
       </c>
       <c r="G14" s="77" t="s">
-        <v>389</v>
-      </c>
-      <c r="H14" s="77" t="s">
-        <v>382</v>
-      </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
+        <v>392</v>
+      </c>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77" t="s">
+        <v>385</v>
+      </c>
       <c r="K14" s="29"/>
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="88" t="n">
@@ -6495,16 +6550,18 @@
         <v>14</v>
       </c>
       <c r="G15" s="93" t="s">
-        <v>390</v>
-      </c>
-      <c r="H15" s="92" t="s">
-        <v>382</v>
-      </c>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
+        <v>393</v>
+      </c>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="92" t="s">
+        <v>385</v>
+      </c>
       <c r="K15" s="92"/>
       <c r="L15" s="92"/>
       <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6524,7 +6581,7 @@
   </sheetPr>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -6601,7 +6658,7 @@
         <v>233</v>
       </c>
       <c r="F2" s="96" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="G2" s="96" t="s">
         <v>221</v>
@@ -6621,7 +6678,7 @@
         <v>224</v>
       </c>
       <c r="N2" s="44" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="O2" s="98" t="s">
         <v>48</v>
@@ -6648,20 +6705,20 @@
   </sheetPr>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.3076923076923"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="59.2348178137652"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="60.5222672064777"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="52.2753036437247"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.6356275303644"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="64.8056680161943"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="62.663967611336"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="53.9878542510122"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="67.0566801619433"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="77.6599190283401"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6676,7 +6733,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -6685,25 +6742,25 @@
         <v>226</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>9</v>
@@ -6729,22 +6786,22 @@
         <v>130</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>223</v>
@@ -6777,7 +6834,7 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6785,8 +6842,8 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.2064777327935"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
@@ -6832,19 +6889,19 @@
         <v>16</v>
       </c>
       <c r="E2" s="77" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F2" s="77" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="G2" s="77" t="s">
         <v>224</v>
       </c>
       <c r="H2" s="77" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I2" s="77" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -6865,7 +6922,7 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -6874,11 +6931,11 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.1295546558704"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.9514170040486"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6890,7 +6947,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="100" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D1" s="99"/>
       <c r="E1" s="101"/>
@@ -6907,7 +6964,7 @@
         <v>204</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
@@ -7055,7 +7112,7 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -7063,13 +7120,13 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.7773279352227"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="38.3481781376518"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.6720647773279"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.4534412955466"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="133.04048582996"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="49.919028340081"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="137.862348178138"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7081,25 +7138,25 @@
         <v>3</v>
       </c>
       <c r="C1" s="100" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D1" s="99" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E1" s="101" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="F1" s="99" t="s">
         <v>294</v>
       </c>
       <c r="G1" s="101" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="H1" s="99" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="I1" s="101" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7113,19 +7170,19 @@
         <v>205</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E2" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="G2" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="I2" s="36" t="n">
         <v>1</v>
@@ -7142,19 +7199,19 @@
         <v>205</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="E3" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G3" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="I3" s="36" t="n">
         <v>1</v>
@@ -7171,13 +7228,13 @@
         <v>205</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E4" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="G4" s="36" t="n">
         <v>3</v>
@@ -7200,19 +7257,19 @@
         <v>205</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E5" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="G5" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="I5" s="36" t="n">
         <v>1</v>
@@ -7229,19 +7286,19 @@
         <v>205</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E6" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="G6" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="I6" s="36" t="n">
         <v>1</v>
@@ -7258,19 +7315,19 @@
         <v>205</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="E7" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G7" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="I7" s="36" t="n">
         <v>1</v>
@@ -7287,13 +7344,13 @@
         <v>205</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E8" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="G8" s="36" t="n">
         <v>3</v>
@@ -7316,19 +7373,19 @@
         <v>205</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E9" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="G9" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H9" s="102" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="I9" s="36" t="n">
         <v>1</v>
@@ -7345,19 +7402,19 @@
         <v>205</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E10" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="G10" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="I10" s="36" t="n">
         <v>1</v>
@@ -7374,19 +7431,19 @@
         <v>205</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="E11" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G11" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="I11" s="36" t="n">
         <v>1</v>
@@ -7403,13 +7460,13 @@
         <v>205</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E12" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="G12" s="36" t="n">
         <v>3</v>
@@ -7432,19 +7489,19 @@
         <v>205</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E13" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="G13" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H13" s="102" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="I13" s="36" t="n">
         <v>1</v>
@@ -7469,21 +7526,21 @@
   </sheetPr>
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="70.5910931174089"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.0566801619433"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.6356275303644"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="90.8380566801619"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="94.1578947368421"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="90.8380566801619"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="94.1578947368421"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="27.8502024291498"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -7666,28 +7723,28 @@
   </sheetPr>
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R4" activeCellId="0" sqref="R4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="112.902834008097"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="116.975708502024"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="87.6234817813765"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="72.4129554655871"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="105.51012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="37.919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="46.0607287449393"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="37.919028340081"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="49.4898785425101"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="61.8056680161943"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="90.8380566801619"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="109.368421052632"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.2064777327935"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="47.4534412955466"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="39.2064777327935"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="63.9514170040486"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="35.1336032388664"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="32.9919028340081"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -8150,7 +8207,7 @@
   </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -8162,14 +8219,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="36.6356275303644"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="37.919028340081"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="39.2064777327935"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="34.3846153846154"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="52.8097165991903"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="27.8502024291498"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -8295,18 +8352,18 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="70.5910931174089"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="104.441295546559"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.0566801619433"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="108.19028340081"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="82.4817813765182"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="152.323886639676"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="85.3724696356275"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="158"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -8567,21 +8624,21 @@
   </sheetPr>
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="82.4817813765182"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="75.6275303643725"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="102.939271255061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="109.368421052632"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="85.3724696356275"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="78.3036437246964"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="106.582995951417"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="113.331983805668"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="59" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="62.3441295546559"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="64.5910931174089"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="59" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="59" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="59" width="13.3886639676113"/>
@@ -9156,27 +9213,27 @@
   </sheetPr>
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.2388663967611"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="76.6963562753036"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.6356275303644"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="41.3481781376518"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.2388663967611"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.2064777327935"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.8461538461539"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="79.3765182186235"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="51.9514170040486"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.9919028340081"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="27.8502024291498"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="32.9919028340081"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1019" min="18" style="0" width="9.10526315789474"/>
@@ -9493,25 +9550,25 @@
   </sheetPr>
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.9514170040486"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.668016194332"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.6356275303644"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.8137651821862"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.919028340081"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="91.8016194331984"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.2064777327935"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="95.0161943319838"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.9919028340081"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="29.9919028340081"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -9710,20 +9767,20 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.6356275303644"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="88.4817813765182"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="86.8744939271255"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="41.668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="91.6923076923077"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="89.9797570850202"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="43.0607287449393"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>

--- a/Projects/CCNAYARMX/Data/CCNayarTemplate2020v0.9.4.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplate2020v0.9.4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -101,6 +101,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -112,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="434">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -1553,6 +1554,9 @@
   </si>
   <si>
     <t xml:space="preserve">Personal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLAS,Colas Sin Azucar</t>
   </si>
   <si>
     <t xml:space="preserve">Only 1 block in the scene for the specific category and MS vs SS att</t>
@@ -2936,7 +2940,7 @@
   </sheetPr>
   <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A86" activeCellId="0" sqref="A86"/>
@@ -2945,15 +2949,15 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="76.6963562753036"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.2429149797571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="94.1578947368421"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.2064777327935"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="182.210526315789"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="77.3400809716599"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="94.9068825910931"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.5263157894737"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="183.923076923077"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7125506072875"/>
   </cols>
@@ -5300,9 +5304,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.2064777327935"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.3846153846154"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.5263157894737"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.5991902834008"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.1376518218623"/>
     <col collapsed="false" hidden="false" max="1017" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -5402,10 +5406,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.2064777327935"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.5263157894737"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="1019" min="7" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.78542510121457"/>
   </cols>
@@ -5421,7 +5425,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="76" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E1" s="76" t="s">
         <v>4</v>
@@ -5444,10 +5448,10 @@
         <v>133</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5464,10 +5468,10 @@
         <v>133</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5487,7 +5491,7 @@
         <v>168</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5507,7 +5511,7 @@
         <v>168</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5521,13 +5525,13 @@
         <v>134</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5541,13 +5545,13 @@
         <v>134</v>
       </c>
       <c r="D7" s="80" t="s">
+        <v>348</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>347</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5561,13 +5565,13 @@
         <v>134</v>
       </c>
       <c r="D8" s="80" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>161</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5581,13 +5585,13 @@
         <v>134</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>161</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5601,13 +5605,13 @@
         <v>134</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>161</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5621,13 +5625,13 @@
         <v>134</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>161</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5647,7 +5651,7 @@
         <v>168</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5667,7 +5671,7 @@
         <v>168</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -5695,14 +5699,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="85.3724696356275"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="75.9473684210526"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="51.5222672064777"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="62.9878542510121"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="86.1255060728745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="76.6963562753036"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="51.9514170040486"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="63.5222672064777"/>
     <col collapsed="false" hidden="false" max="1017" min="12" style="59" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -5727,16 +5731,16 @@
         <v>7</v>
       </c>
       <c r="G1" s="81" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H1" s="82" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -5769,10 +5773,10 @@
         <v>218</v>
       </c>
       <c r="J2" s="83" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5792,20 +5796,20 @@
         <v>125</v>
       </c>
       <c r="F3" s="83" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G3" s="83"/>
       <c r="H3" s="85" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I3" s="83" t="s">
         <v>218</v>
       </c>
       <c r="J3" s="83" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K3" s="31" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -5833,14 +5837,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.3805668016194"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="107.226720647773"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="108.19028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="75.6275303643725"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.9554655870445"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="35.3481781376518"/>
     <col collapsed="false" hidden="false" max="10" min="9" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="62.663967611336"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="63.1983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -5864,25 +5868,25 @@
         <v>4</v>
       </c>
       <c r="G1" s="86" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1" s="86" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I1" s="87" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J1" s="87" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K1" s="87" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L1" s="87" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M1" s="87" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5896,7 +5900,7 @@
         <v>191</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>192</v>
@@ -5911,7 +5915,7 @@
       <c r="I2" s="52"/>
       <c r="J2" s="52"/>
       <c r="K2" s="52" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L2" s="52"/>
       <c r="M2" s="52"/>
@@ -5927,7 +5931,7 @@
         <v>195</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>192</v>
@@ -5942,7 +5946,7 @@
       <c r="I3" s="52"/>
       <c r="J3" s="52"/>
       <c r="K3" s="52" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L3" s="52"/>
       <c r="M3" s="52"/>
@@ -5958,7 +5962,7 @@
         <v>199</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>192</v>
@@ -6037,14 +6041,14 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.4898785425101"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.8097165991903"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.5222672064777"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="133.46963562753"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="106.477732793522"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="134.647773279352"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="107.441295546559"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.9919028340081"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.6761133603239"/>
@@ -6065,28 +6069,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>9</v>
@@ -6116,12 +6120,12 @@
         <v>14</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
@@ -6150,12 +6154,12 @@
         <v>14</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
@@ -6183,12 +6187,12 @@
         <v>14</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -6216,15 +6220,15 @@
         <v>14</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L5" s="10" t="n">
         <v>1</v>
@@ -6255,15 +6259,15 @@
         <v>14</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L6" s="10" t="n">
         <v>1</v>
@@ -6294,14 +6298,14 @@
         <v>14</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
@@ -6327,12 +6331,12 @@
         <v>14</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -6360,12 +6364,12 @@
         <v>14</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -6393,14 +6397,14 @@
         <v>14</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -6428,12 +6432,12 @@
         <v>14</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -6459,12 +6463,12 @@
         <v>14</v>
       </c>
       <c r="G12" s="77" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H12" s="77"/>
       <c r="I12" s="77"/>
       <c r="J12" s="77" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
@@ -6490,12 +6494,12 @@
         <v>14</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="77" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
@@ -6521,12 +6525,12 @@
         <v>14</v>
       </c>
       <c r="G14" s="77" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H14" s="77"/>
       <c r="I14" s="77"/>
       <c r="J14" s="77" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K14" s="29"/>
       <c r="L14" s="29"/>
@@ -6550,12 +6554,12 @@
         <v>14</v>
       </c>
       <c r="G15" s="93" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H15" s="93"/>
       <c r="I15" s="93"/>
       <c r="J15" s="92" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K15" s="92"/>
       <c r="L15" s="92"/>
@@ -6658,7 +6662,7 @@
         <v>233</v>
       </c>
       <c r="F2" s="96" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G2" s="96" t="s">
         <v>221</v>
@@ -6678,7 +6682,7 @@
         <v>224</v>
       </c>
       <c r="N2" s="44" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O2" s="98" t="s">
         <v>48</v>
@@ -6712,13 +6716,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="59.2348178137652"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="59.7732793522267"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="62.663967611336"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="53.9878542510122"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="67.0566801619433"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="77.6599190283401"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="63.1983805668016"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="54.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="67.7004048582996"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="78.3036437246964"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6733,7 +6737,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -6742,25 +6746,25 @@
         <v>226</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>9</v>
@@ -6786,22 +6790,22 @@
         <v>130</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>223</v>
@@ -6842,8 +6846,8 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.2064777327935"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.5263157894737"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
@@ -6889,19 +6893,19 @@
         <v>16</v>
       </c>
       <c r="E2" s="77" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F2" s="77" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G2" s="77" t="s">
         <v>224</v>
       </c>
       <c r="H2" s="77" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I2" s="77" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -6931,11 +6935,11 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.9514170040486"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.4858299595142"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6947,7 +6951,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="100" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D1" s="99"/>
       <c r="E1" s="101"/>
@@ -6964,7 +6968,7 @@
         <v>204</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
@@ -7120,13 +7124,13 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="49.919028340081"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.6356275303644"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.7408906882591"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="45.9554655870445"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="137.862348178138"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="50.3441295546559"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="34.0647773279352"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="139.145748987854"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7138,25 +7142,25 @@
         <v>3</v>
       </c>
       <c r="C1" s="100" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D1" s="99" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E1" s="101" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F1" s="99" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G1" s="101" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1" s="99" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I1" s="101" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7170,19 +7174,19 @@
         <v>205</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E2" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G2" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I2" s="36" t="n">
         <v>1</v>
@@ -7199,19 +7203,19 @@
         <v>205</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E3" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G3" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I3" s="36" t="n">
         <v>1</v>
@@ -7228,19 +7232,19 @@
         <v>205</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E4" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G4" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I4" s="36" t="n">
         <v>1</v>
@@ -7257,19 +7261,19 @@
         <v>205</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E5" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G5" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I5" s="36" t="n">
         <v>1</v>
@@ -7286,19 +7290,19 @@
         <v>205</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E6" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G6" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I6" s="36" t="n">
         <v>1</v>
@@ -7315,19 +7319,19 @@
         <v>205</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E7" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G7" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I7" s="36" t="n">
         <v>1</v>
@@ -7344,19 +7348,19 @@
         <v>205</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E8" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G8" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I8" s="36" t="n">
         <v>1</v>
@@ -7373,19 +7377,19 @@
         <v>205</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E9" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G9" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H9" s="102" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I9" s="36" t="n">
         <v>1</v>
@@ -7402,19 +7406,19 @@
         <v>205</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E10" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G10" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I10" s="36" t="n">
         <v>1</v>
@@ -7431,19 +7435,19 @@
         <v>205</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E11" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G11" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I11" s="36" t="n">
         <v>1</v>
@@ -7460,19 +7464,19 @@
         <v>205</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E12" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G12" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I12" s="36" t="n">
         <v>1</v>
@@ -7489,19 +7493,19 @@
         <v>205</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E13" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G13" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H13" s="102" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I13" s="36" t="n">
         <v>1</v>
@@ -7533,14 +7537,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.0566801619433"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.6963562753036"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="94.1578947368421"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="94.9068825910931"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="94.1578947368421"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="94.9068825910931"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="28.0647773279352"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -7730,21 +7734,21 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="116.975708502024"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="118.044534412955"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="90.8380566801619"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="74.9838056680162"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="109.368421052632"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.2064777327935"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="47.4534412955466"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="39.2064777327935"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="51.0971659919028"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="63.9514170040486"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="91.6923076923077"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="75.6275303643725"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="110.331983805668"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.5263157894737"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="47.8825910931174"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="39.5263157894737"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="64.5910931174089"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="35.3481781376518"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="33.2064777327935"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -8219,14 +8223,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="39.2064777327935"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="34.3846153846154"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="39.5263157894737"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="34.5991902834008"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="53.2388663967611"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="28.0647773279352"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -8359,11 +8363,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.0566801619433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="108.19028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.6963562753036"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="109.153846153846"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="85.3724696356275"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="158"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="86.1255060728745"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="159.392712550607"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -8624,21 +8628,21 @@
   </sheetPr>
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="85.3724696356275"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="78.3036437246964"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="106.582995951417"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="113.331983805668"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="86.1255060728745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="79.0526315789474"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="107.546558704453"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="114.295546558704"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="59" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="64.5910931174089"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="65.1295546558705"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="59" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="59" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="59" width="13.3886639676113"/>
@@ -8740,7 +8744,7 @@
         <v>284</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="K2" s="41" t="s">
         <v>218</v>
@@ -8761,7 +8765,7 @@
       <c r="S2" s="61"/>
       <c r="T2" s="61"/>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>16</v>
       </c>
@@ -8781,16 +8785,16 @@
         <v>283</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H3" s="41" t="s">
         <v>222</v>
       </c>
       <c r="I3" s="41" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J3" s="41" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="K3" s="41" t="s">
         <v>218</v>
@@ -8831,7 +8835,7 @@
         <v>283</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H4" s="41" t="s">
         <v>222</v>
@@ -8881,13 +8885,13 @@
         <v>283</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H5" s="41" t="s">
         <v>222</v>
       </c>
       <c r="I5" s="41" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J5" s="41" t="s">
         <v>254</v>
@@ -8931,7 +8935,7 @@
         <v>283</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H6" s="41" t="s">
         <v>222</v>
@@ -8940,7 +8944,7 @@
         <v>284</v>
       </c>
       <c r="J6" s="41" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K6" s="41" t="s">
         <v>218</v>
@@ -8981,16 +8985,16 @@
         <v>283</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H7" s="41" t="s">
         <v>222</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J7" s="41" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K7" s="41" t="s">
         <v>218</v>
@@ -9031,14 +9035,14 @@
         <v>283</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H8" s="41" t="s">
         <v>222</v>
       </c>
       <c r="I8" s="62"/>
       <c r="J8" s="41" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K8" s="41" t="s">
         <v>218</v>
@@ -9067,7 +9071,7 @@
         <v>84</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D9" s="42" t="s">
         <v>66</v>
@@ -9076,7 +9080,7 @@
         <v>282</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G9" s="32" t="s">
         <v>82</v>
@@ -9086,7 +9090,7 @@
       </c>
       <c r="I9" s="44"/>
       <c r="J9" s="61" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K9" s="61"/>
       <c r="L9" s="61" t="s">
@@ -9122,7 +9126,7 @@
       </c>
       <c r="E10" s="61"/>
       <c r="F10" s="42" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G10" s="32" t="s">
         <v>82</v>
@@ -9166,7 +9170,7 @@
       </c>
       <c r="E11" s="61"/>
       <c r="F11" s="42" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G11" s="32" t="s">
         <v>82</v>
@@ -9176,7 +9180,7 @@
       </c>
       <c r="I11" s="61"/>
       <c r="J11" s="61" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K11" s="61"/>
       <c r="L11" s="61"/>
@@ -9220,20 +9224,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.2064777327935"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.2064777327935"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.8461538461539"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="79.3765182186235"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="51.9514170040486"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.5263157894737"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.5263157894737"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.2753036437247"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="80.0161943319838"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="33.2064777327935"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="28.0647773279352"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="33.2064777327935"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1019" min="18" style="0" width="9.10526315789474"/>
@@ -9254,7 +9258,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -9266,19 +9270,19 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>213</v>
@@ -9307,19 +9311,19 @@
         <v>177</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F2" s="57" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G2" s="65" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>176</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J2" s="31" t="n">
         <v>0.4</v>
@@ -9354,19 +9358,19 @@
         <v>181</v>
       </c>
       <c r="E3" s="64" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G3" s="65" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H3" s="31" t="s">
         <v>176</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J3" s="31" t="n">
         <v>0.4</v>
@@ -9401,19 +9405,19 @@
         <v>183</v>
       </c>
       <c r="E4" s="64" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G4" s="65" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H4" s="31" t="s">
         <v>176</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J4" s="31" t="n">
         <v>0.1</v>
@@ -9448,19 +9452,19 @@
         <v>185</v>
       </c>
       <c r="E5" s="64" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G5" s="65" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H5" s="31" t="s">
         <v>153</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J5" s="31" t="n">
         <v>0.1</v>
@@ -9495,26 +9499,26 @@
         <v>187</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H6" s="32" t="s">
         <v>176</v>
       </c>
       <c r="I6" s="67" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J6" s="67"/>
       <c r="K6" s="68" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L6" s="68" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M6" s="68" t="s">
         <v>220</v>
@@ -9556,19 +9560,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.0931174089069"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.9919028340081"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.0283400809717"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.2064777327935"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="95.0161943319838"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.5263157894737"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="95.8704453441296"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="33.2064777327935"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="30.2064777327935"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -9596,10 +9600,10 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>264</v>
@@ -9608,13 +9612,13 @@
         <v>213</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>214</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>9</v>
@@ -9631,25 +9635,25 @@
         <v>18</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G2" s="70" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H2" s="70" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I2" s="70" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J2" s="70"/>
       <c r="K2" s="44" t="s">
@@ -9657,7 +9661,7 @@
       </c>
       <c r="L2" s="56"/>
       <c r="M2" s="56" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N2" s="56"/>
       <c r="O2" s="56" t="s">
@@ -9673,22 +9677,22 @@
         <v>23</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G3" s="70" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H3" s="70" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I3" s="70" t="n">
         <v>2</v>
@@ -9699,7 +9703,7 @@
       </c>
       <c r="L3" s="56"/>
       <c r="M3" s="56" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N3" s="56"/>
       <c r="O3" s="56" t="s">
@@ -9715,25 +9719,25 @@
         <v>25</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G4" s="70" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H4" s="70" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I4" s="70" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J4" s="32"/>
       <c r="K4" s="44" t="s">
@@ -9741,7 +9745,7 @@
       </c>
       <c r="L4" s="56"/>
       <c r="M4" s="56" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N4" s="56"/>
       <c r="O4" s="56" t="s">
@@ -9774,13 +9778,13 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="91.6923076923077"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="89.9797570850202"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="92.4453441295547"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="90.8380566801619"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="43.4898785425101"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -9795,19 +9799,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9825,13 +9829,13 @@
         <v>0.25</v>
       </c>
       <c r="F2" s="44" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G2" s="44" t="n">
         <v>1</v>
       </c>
       <c r="H2" s="74" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9849,13 +9853,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="F3" s="44" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G3" s="44" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="74" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9873,13 +9877,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G4" s="44" t="n">
         <v>1</v>
       </c>
       <c r="H4" s="74" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9899,13 +9903,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H5" s="74" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9923,13 +9927,13 @@
         <v>0.25</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G6" s="44" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="74" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9947,13 +9951,13 @@
         <v>0.25</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G7" s="44" t="n">
         <v>1</v>
       </c>
       <c r="H7" s="74" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9971,13 +9975,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G8" s="44" t="n">
         <v>1</v>
       </c>
       <c r="H8" s="74" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9997,13 +10001,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H9" s="74" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10021,13 +10025,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G10" s="44" t="n">
         <v>1</v>
       </c>
       <c r="H10" s="74" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10045,13 +10049,13 @@
         <v>0.25</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G11" s="44" t="n">
         <v>1</v>
       </c>
       <c r="H11" s="74" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10069,13 +10073,13 @@
         <v>0.25</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G12" s="44" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="74" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10093,13 +10097,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G13" s="44" t="n">
         <v>1</v>
       </c>
       <c r="H13" s="74" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10119,13 +10123,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="F14" s="52" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H14" s="74" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10143,13 +10147,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G15" s="44" t="n">
         <v>1</v>
       </c>
       <c r="H15" s="74" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10167,13 +10171,13 @@
         <v>0.25</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G16" s="44" t="n">
         <v>1</v>
       </c>
       <c r="H16" s="74" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10191,13 +10195,13 @@
         <v>0.25</v>
       </c>
       <c r="F17" s="44" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G17" s="44" t="n">
         <v>1</v>
       </c>
       <c r="H17" s="74" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10215,13 +10219,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G18" s="44" t="n">
         <v>1</v>
       </c>
       <c r="H18" s="74" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10239,13 +10243,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G19" s="44" t="n">
         <v>1</v>
       </c>
       <c r="H19" s="74" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10265,13 +10269,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="F20" s="52" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G20" s="52" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H20" s="74" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10289,13 +10293,13 @@
         <v>0.25</v>
       </c>
       <c r="F21" s="44" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G21" s="44" t="n">
         <v>1</v>
       </c>
       <c r="H21" s="74" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCNAYARMX/Data/CCNayarTemplate2020v0.9.4.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplate2020v0.9.4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
     <sheet name="Ejecucion Sombra Prerequisite" sheetId="19" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$K$86</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="a" vbProcedure="false">KPIs!$A$1:$K$82</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="aaa" vbProcedure="false">KPIs!$A$1:$K$82</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="ars4y" vbProcedure="false">KPIs!$A$1:$K$82</definedName>
@@ -87,7 +87,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$82</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$82</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatavase_1" vbProcedure="false">KPIs!$A$1:$K$77</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$K$86</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
@@ -102,6 +102,10 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -113,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="436">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -1043,6 +1047,9 @@
   </si>
   <si>
     <t xml:space="preserve">Specific Scene type KPI where if a competitor Brand is detected in scene then there must be a specific coke product and minimum facings. Additionally a POSM Material Is required. If Facings and SKU constraints are met and POSM then KPI rewards 5 points. If no POSM detected but other conditions satisfied, then 3 points are awarded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chico</t>
   </si>
   <si>
     <t xml:space="preserve">ignore_stacking</t>
@@ -1761,6 +1768,9 @@
     <t xml:space="preserve">parent_score_portion</t>
   </si>
   <si>
+    <t xml:space="preserve">dependency_on_scoring</t>
+  </si>
+  <si>
     <t xml:space="preserve">Data_Column</t>
   </si>
   <si>
@@ -1776,6 +1786,9 @@
     <t xml:space="preserve">Worth 25% of total points available for Platform. Platform KPIs are now Proportional</t>
   </si>
   <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
     <t xml:space="preserve">Minimum facings met</t>
   </si>
   <si>
@@ -1915,9 +1928,6 @@
   </si>
   <si>
     <t xml:space="preserve">Bloques Colas 55%,Bloques Sabores 25%,Frentes Cattman,Acomodo por Bloques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y</t>
   </si>
   <si>
     <t xml:space="preserve">sum</t>
@@ -2938,26 +2948,26 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L85"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A86" activeCellId="0" sqref="A86"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="H88" activeCellId="0" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="77.3400809716599"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.5627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="94.9068825910931"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.5263157894737"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="183.923076923077"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="80.0161943319838"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.8502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="98.336032388664"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="190.672064777328"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.2793522267206"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7125506072875"/>
   </cols>
@@ -4078,7 +4088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
         <v>36</v>
       </c>
@@ -4921,7 +4931,7 @@
         <v>182</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="4" t="s">
@@ -5166,7 +5176,7 @@
       <c r="J81" s="19"/>
       <c r="K81" s="19"/>
     </row>
-    <row r="82" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="28.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="n">
         <v>76</v>
       </c>
@@ -5268,11 +5278,42 @@
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
     </row>
+    <row r="86" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E86" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="F86" s="5"/>
+      <c r="G86" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="J86" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K86" s="19"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K85">
+  <autoFilter ref="A1:K86">
     <filterColumn colId="3">
       <customFilters and="true">
-        <customFilter operator="equal" val="Ejecucion Sombra"/>
+        <customFilter operator="equal" val="Cattman Portafolio"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
@@ -5304,9 +5345,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.5263157894737"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.5991902834008"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.4574898785425"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.9919028340081"/>
     <col collapsed="false" hidden="false" max="1017" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -5406,10 +5447,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.5263157894737"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.4574898785425"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="31.9230769230769"/>
     <col collapsed="false" hidden="false" max="1019" min="7" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.78542510121457"/>
   </cols>
@@ -5425,7 +5466,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="76" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E1" s="76" t="s">
         <v>4</v>
@@ -5448,10 +5489,10 @@
         <v>133</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5468,10 +5509,10 @@
         <v>133</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5491,7 +5532,7 @@
         <v>168</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5511,7 +5552,7 @@
         <v>168</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5525,13 +5566,13 @@
         <v>134</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F6" s="22" t="s">
         <v>349</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5545,13 +5586,13 @@
         <v>134</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5565,13 +5606,13 @@
         <v>134</v>
       </c>
       <c r="D8" s="80" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>161</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5585,13 +5626,13 @@
         <v>134</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>161</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5605,13 +5646,13 @@
         <v>134</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>161</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5625,13 +5666,13 @@
         <v>134</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>161</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5651,7 +5692,7 @@
         <v>168</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5671,7 +5712,7 @@
         <v>168</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -5692,21 +5733,21 @@
   </sheetPr>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="86.1255060728745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="76.6963562753036"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="51.9514170040486"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="63.5222672064777"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="89.2307692307692"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="79.3765182186235"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="53.668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="65.7692307692308"/>
     <col collapsed="false" hidden="false" max="1017" min="12" style="59" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -5731,16 +5772,16 @@
         <v>7</v>
       </c>
       <c r="G1" s="81" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H1" s="82" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -5766,17 +5807,17 @@
         <v>117</v>
       </c>
       <c r="G2" s="84" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H2" s="0"/>
       <c r="I2" s="83" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J2" s="83" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5796,20 +5837,20 @@
         <v>125</v>
       </c>
       <c r="F3" s="83" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="G3" s="83"/>
       <c r="H3" s="85" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="I3" s="83" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J3" s="83" t="s">
+        <v>360</v>
+      </c>
+      <c r="K3" s="31" t="s">
         <v>357</v>
-      </c>
-      <c r="K3" s="31" t="s">
-        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -5837,14 +5878,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.8097165991903"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="108.19028340081"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="75.6275303643725"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.5222672064777"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="112.153846153846"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="78.3036437246964"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.9554655870445"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="44.3481781376518"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="36.5263157894737"/>
     <col collapsed="false" hidden="false" max="10" min="9" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="63.1983805668016"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="65.3441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -5868,25 +5909,25 @@
         <v>4</v>
       </c>
       <c r="G1" s="86" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H1" s="86" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="I1" s="87" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J1" s="87" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K1" s="87" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L1" s="87" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M1" s="87" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5900,7 +5941,7 @@
         <v>191</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>192</v>
@@ -5909,13 +5950,13 @@
         <v>153</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H2" s="52"/>
       <c r="I2" s="52"/>
       <c r="J2" s="52"/>
       <c r="K2" s="52" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L2" s="52"/>
       <c r="M2" s="52"/>
@@ -5931,7 +5972,7 @@
         <v>195</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>192</v>
@@ -5940,13 +5981,13 @@
         <v>153</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H3" s="52"/>
       <c r="I3" s="52"/>
       <c r="J3" s="52"/>
       <c r="K3" s="52" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L3" s="52"/>
       <c r="M3" s="52"/>
@@ -5962,7 +6003,7 @@
         <v>199</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>192</v>
@@ -5972,7 +6013,7 @@
       </c>
       <c r="G4" s="24"/>
       <c r="H4" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>4</v>
@@ -6041,14 +6082,14 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.8097165991903"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.3117408906883"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.2388663967611"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="134.647773279352"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="107.441295546559"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="139.46963562753"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="111.295546558704"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.6761133603239"/>
@@ -6069,28 +6110,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>9</v>
@@ -6099,7 +6140,7 @@
         <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6120,12 +6161,12 @@
         <v>14</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="3" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
@@ -6154,12 +6195,12 @@
         <v>14</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="3" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
@@ -6187,12 +6228,12 @@
         <v>14</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="3" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -6220,15 +6261,15 @@
         <v>14</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="3" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L5" s="10" t="n">
         <v>1</v>
@@ -6259,15 +6300,15 @@
         <v>14</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="3" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L6" s="10" t="n">
         <v>1</v>
@@ -6298,14 +6339,14 @@
         <v>14</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>385</v>
+        <v>340</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
@@ -6331,12 +6372,12 @@
         <v>14</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="9" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -6364,12 +6405,12 @@
         <v>14</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -6397,14 +6438,14 @@
         <v>14</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>385</v>
+        <v>340</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -6432,12 +6473,12 @@
         <v>14</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -6463,12 +6504,12 @@
         <v>14</v>
       </c>
       <c r="G12" s="77" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H12" s="77"/>
       <c r="I12" s="77"/>
       <c r="J12" s="77" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
@@ -6494,12 +6535,12 @@
         <v>14</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="77" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
@@ -6525,12 +6566,12 @@
         <v>14</v>
       </c>
       <c r="G14" s="77" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H14" s="77"/>
       <c r="I14" s="77"/>
       <c r="J14" s="77" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K14" s="29"/>
       <c r="L14" s="29"/>
@@ -6554,12 +6595,12 @@
         <v>14</v>
       </c>
       <c r="G15" s="93" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H15" s="93"/>
       <c r="I15" s="93"/>
       <c r="J15" s="92" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K15" s="92"/>
       <c r="L15" s="92"/>
@@ -6609,34 +6650,34 @@
         <v>7</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F1" s="40" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J1" s="40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K1" s="40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L1" s="40" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M1" s="40" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N1" s="40" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O1" s="40" t="s">
         <v>9</v>
@@ -6659,30 +6700,30 @@
         <v>122</v>
       </c>
       <c r="E2" s="97" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F2" s="96" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G2" s="96" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H2" s="96" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I2" s="96"/>
       <c r="J2" s="97"/>
       <c r="K2" s="96" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L2" s="98" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M2" s="98" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N2" s="44" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="O2" s="98" t="s">
         <v>48</v>
@@ -6716,13 +6757,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="59.7732793522267"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="61.8056680161943"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="63.1983805668016"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="54.417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="67.7004048582996"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="78.3036437246964"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="65.3441295546559"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="56.3441295546559"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="42.5263157894737"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="70.0566801619433"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="80.9838056680162"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6737,34 +6778,34 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>9</v>
@@ -6790,28 +6831,28 @@
         <v>130</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>22</v>
@@ -6846,8 +6887,8 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.5263157894737"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="40.919028340081"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
@@ -6872,10 +6913,10 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>9</v>
@@ -6893,19 +6934,19 @@
         <v>16</v>
       </c>
       <c r="E2" s="77" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F2" s="77" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G2" s="77" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H2" s="77" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="I2" s="77" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -6935,11 +6976,11 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.4858299595142"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.8866396761134"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="57.3076923076923"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6951,7 +6992,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="100" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D1" s="99"/>
       <c r="E1" s="101"/>
@@ -6968,7 +7009,7 @@
         <v>204</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
@@ -7124,13 +7165,13 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="50.3441295546559"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="34.0647773279352"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="139.145748987854"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.2024291497976"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="52.0607287449393"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.7732793522267"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="144.072874493927"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7142,25 +7183,25 @@
         <v>3</v>
       </c>
       <c r="C1" s="100" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D1" s="99" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E1" s="101" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F1" s="99" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G1" s="101" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H1" s="99" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="I1" s="101" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7174,19 +7215,19 @@
         <v>205</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E2" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G2" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="I2" s="36" t="n">
         <v>1</v>
@@ -7203,19 +7244,19 @@
         <v>205</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E3" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G3" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="I3" s="36" t="n">
         <v>1</v>
@@ -7232,19 +7273,19 @@
         <v>205</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E4" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G4" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I4" s="36" t="n">
         <v>1</v>
@@ -7261,19 +7302,19 @@
         <v>205</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E5" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G5" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="I5" s="36" t="n">
         <v>1</v>
@@ -7290,19 +7331,19 @@
         <v>205</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E6" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G6" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="I6" s="36" t="n">
         <v>1</v>
@@ -7319,19 +7360,19 @@
         <v>205</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E7" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G7" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="I7" s="36" t="n">
         <v>1</v>
@@ -7348,19 +7389,19 @@
         <v>205</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E8" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G8" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I8" s="36" t="n">
         <v>1</v>
@@ -7377,19 +7418,19 @@
         <v>205</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E9" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G9" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H9" s="102" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="I9" s="36" t="n">
         <v>1</v>
@@ -7406,19 +7447,19 @@
         <v>205</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E10" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G10" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="I10" s="36" t="n">
         <v>1</v>
@@ -7435,19 +7476,19 @@
         <v>205</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E11" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G11" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="I11" s="36" t="n">
         <v>1</v>
@@ -7464,19 +7505,19 @@
         <v>205</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E12" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G12" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I12" s="36" t="n">
         <v>1</v>
@@ -7493,19 +7534,19 @@
         <v>205</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E13" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G13" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H13" s="102" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="I13" s="36" t="n">
         <v>1</v>
@@ -7537,14 +7578,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.6963562753036"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="76.3765182186235"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="94.9068825910931"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="98.336032388664"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="94.9068825910931"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="98.336032388664"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="28.9230769230769"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -7570,31 +7611,31 @@
         <v>8</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J1" s="40" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O1" s="40" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P1" s="40" t="s">
         <v>9</v>
@@ -7614,40 +7655,40 @@
         <v>54</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F2" s="43" t="s">
         <v>55</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H2" s="43" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I2" s="43" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J2" s="43" t="s">
         <v>90</v>
       </c>
       <c r="K2" s="43" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L2" s="43" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M2" s="44" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N2" s="44" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O2" s="43" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P2" s="44" t="s">
         <v>48</v>
@@ -7667,40 +7708,40 @@
         <v>54</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F3" s="43" t="s">
         <v>55</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H3" s="43" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I3" s="43" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J3" s="43" t="s">
         <v>90</v>
       </c>
       <c r="K3" s="43" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L3" s="43" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M3" s="44" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N3" s="44" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O3" s="43" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P3" s="44" t="s">
         <v>48</v>
@@ -7734,21 +7775,21 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="118.044534412955"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="122.222672064777"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="91.6923076923077"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="75.6275303643725"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="110.331983805668"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.5263157894737"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="47.8825910931174"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="39.5263157894737"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="51.5222672064777"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="64.5910931174089"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="94.9068825910931"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="78.3036437246964"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="114.295546558704"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="53.2388663967611"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="66.8421052631579"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="36.5263157894737"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="34.4939271255061"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -7768,7 +7809,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F1" s="40" t="s">
         <v>5</v>
@@ -7777,37 +7818,37 @@
         <v>8</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I1" s="40" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="40" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K1" s="40" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L1" s="40" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M1" s="40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N1" s="40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O1" s="40" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P1" s="40" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q1" s="40" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="R1" s="40" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="S1" s="40" t="s">
         <v>9</v>
@@ -7824,39 +7865,39 @@
         <v>29</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D2" s="46" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F2" s="46"/>
       <c r="G2" s="47" t="s">
         <v>32</v>
       </c>
       <c r="H2" s="47" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I2" s="48" t="s">
         <v>90</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K2" s="47" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L2" s="47"/>
       <c r="M2" s="47"/>
       <c r="N2" s="47"/>
       <c r="O2" s="47"/>
       <c r="P2" s="49" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q2" s="49" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="R2" s="50" t="n">
         <v>100</v>
@@ -7874,41 +7915,41 @@
         <v>42</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F3" s="46"/>
       <c r="G3" s="48" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H3" s="48" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I3" s="48" t="s">
         <v>90</v>
       </c>
       <c r="J3" s="47" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K3" s="48" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L3" s="48"/>
       <c r="M3" s="46"/>
       <c r="N3" s="46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O3" s="46"/>
       <c r="P3" s="49" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q3" s="49" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="R3" s="50"/>
       <c r="S3" s="49" t="s">
@@ -7926,41 +7967,41 @@
         <v>45</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F4" s="46"/>
       <c r="G4" s="48" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I4" s="48" t="s">
         <v>90</v>
       </c>
       <c r="J4" s="47" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K4" s="48" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L4" s="48"/>
       <c r="M4" s="46"/>
       <c r="N4" s="46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O4" s="46"/>
       <c r="P4" s="49" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q4" s="49" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="R4" s="50"/>
       <c r="S4" s="49" t="s">
@@ -7978,52 +8019,52 @@
         <v>91</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E5" s="46"/>
       <c r="F5" s="46" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H5" s="48" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I5" s="48" t="s">
         <v>90</v>
       </c>
       <c r="J5" s="48" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K5" s="48" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L5" s="47" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M5" s="48" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N5" s="48"/>
       <c r="O5" s="48"/>
       <c r="P5" s="49" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="49" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="R5" s="52" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="S5" s="49" t="s">
         <v>48</v>
       </c>
       <c r="T5" s="49" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="U5" s="44"/>
     </row>
@@ -8035,48 +8076,48 @@
         <v>100</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E6" s="46"/>
       <c r="F6" s="46" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H6" s="48" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I6" s="48" t="s">
         <v>90</v>
       </c>
       <c r="J6" s="48" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K6" s="48" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L6" s="47" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M6" s="48" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N6" s="48"/>
       <c r="O6" s="53" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P6" s="49" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q6" s="49" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="R6" s="52" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="S6" s="49" t="s">
         <v>48</v>
@@ -8091,43 +8132,43 @@
         <v>104</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="46"/>
       <c r="F7" s="46" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I7" s="31" t="s">
         <v>90</v>
       </c>
       <c r="J7" s="48" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K7" s="48" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L7" s="47" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M7" s="48" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N7" s="48"/>
       <c r="O7" s="48"/>
       <c r="P7" s="49" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q7" s="49" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="R7" s="52" t="n">
         <v>23</v>
@@ -8145,48 +8186,48 @@
         <v>112</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D8" s="46" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="46"/>
       <c r="F8" s="46" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I8" s="31" t="s">
         <v>90</v>
       </c>
       <c r="J8" s="48" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K8" s="48" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L8" s="47" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M8" s="48" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N8" s="48"/>
       <c r="O8" s="53" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P8" s="49" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q8" s="49" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="R8" s="52" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="S8" s="49" t="s">
         <v>48</v>
@@ -8223,14 +8264,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="39.5263157894737"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="34.5991902834008"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="53.2388663967611"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="35.4574898785425"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="55.0607287449393"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="28.9230769230769"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -8256,7 +8297,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H1" s="39" t="s">
         <v>5</v>
@@ -8265,25 +8306,25 @@
         <v>8</v>
       </c>
       <c r="J1" s="40" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K1" s="40" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L1" s="40" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M1" s="40" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N1" s="40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O1" s="40" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P1" s="40" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q1" s="40" t="s">
         <v>9</v>
@@ -8302,28 +8343,28 @@
         <v>34</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G2" s="42" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H2" s="55" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I2" s="43" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J2" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K2" s="44" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L2" s="44" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M2" s="44"/>
       <c r="N2" s="44"/>
@@ -8363,11 +8404,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.6963562753036"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="109.153846153846"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.3765182186235"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="113.117408906883"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="86.1255060728745"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="159.392712550607"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="89.2307692307692"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="165.392712550607"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -8389,7 +8430,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>9</v>
@@ -8398,7 +8439,7 @@
         <v>10</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8409,7 +8450,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="42" t="s">
         <v>40</v>
@@ -8418,7 +8459,7 @@
         <v>41</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G2" s="44" t="s">
         <v>33</v>
@@ -8434,7 +8475,7 @@
         <v>61</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D3" s="42" t="s">
         <v>40</v>
@@ -8443,7 +8484,7 @@
         <v>63</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G3" s="44" t="s">
         <v>22</v>
@@ -8459,7 +8500,7 @@
         <v>80</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>40</v>
@@ -8484,7 +8525,7 @@
         <v>86</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>40</v>
@@ -8493,7 +8534,7 @@
         <v>88</v>
       </c>
       <c r="F5" s="44" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G5" s="44" t="s">
         <v>22</v>
@@ -8509,7 +8550,7 @@
         <v>94</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>40</v>
@@ -8534,7 +8575,7 @@
         <v>98</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>40</v>
@@ -8543,7 +8584,7 @@
         <v>88</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G7" s="44" t="s">
         <v>22</v>
@@ -8559,7 +8600,7 @@
         <v>107</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D8" s="42" t="s">
         <v>40</v>
@@ -8584,7 +8625,7 @@
         <v>110</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D9" s="42" t="s">
         <v>40</v>
@@ -8593,7 +8634,7 @@
         <v>88</v>
       </c>
       <c r="F9" s="57" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G9" s="44" t="s">
         <v>22</v>
@@ -8628,21 +8669,21 @@
   </sheetPr>
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="86.1255060728745"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="79.0526315789474"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="107.546558704453"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="114.295546558704"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="89.2307692307692"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="81.7327935222672"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="111.404858299595"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="118.473684210526"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="59" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="65.1295546558705"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="67.4858299595142"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="59" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="59" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="59" width="13.3886639676113"/>
@@ -8667,7 +8708,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -8676,34 +8717,34 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>9</v>
@@ -8712,7 +8753,7 @@
         <v>10</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8723,40 +8764,40 @@
         <v>64</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G2" s="41" t="s">
         <v>67</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L2" s="41"/>
       <c r="M2" s="41"/>
       <c r="N2" s="60" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O2" s="44"/>
       <c r="P2" s="61" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q2" s="44"/>
       <c r="R2" s="61" t="s">
@@ -8779,34 +8820,34 @@
         <v>66</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G3" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="J3" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="H3" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>287</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>285</v>
-      </c>
       <c r="K3" s="41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L3" s="41"/>
       <c r="M3" s="41"/>
       <c r="N3" s="60" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O3" s="44"/>
       <c r="P3" s="61" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q3" s="44"/>
       <c r="R3" s="61" t="s">
@@ -8829,34 +8870,34 @@
         <v>66</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J4" s="41" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K4" s="41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L4" s="41"/>
       <c r="M4" s="41"/>
       <c r="N4" s="60" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O4" s="44"/>
       <c r="P4" s="61" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q4" s="44"/>
       <c r="R4" s="61" t="s">
@@ -8879,34 +8920,34 @@
         <v>66</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H5" s="41" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I5" s="41" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J5" s="41" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K5" s="41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L5" s="41"/>
       <c r="M5" s="41"/>
       <c r="N5" s="60" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O5" s="44"/>
       <c r="P5" s="61" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q5" s="44"/>
       <c r="R5" s="61" t="s">
@@ -8929,34 +8970,34 @@
         <v>66</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H6" s="41" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I6" s="41" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J6" s="41" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K6" s="41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L6" s="41"/>
       <c r="M6" s="41"/>
       <c r="N6" s="60" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O6" s="44"/>
       <c r="P6" s="61" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q6" s="44"/>
       <c r="R6" s="61" t="s">
@@ -8979,34 +9020,34 @@
         <v>66</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H7" s="41" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J7" s="41" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K7" s="41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L7" s="41"/>
       <c r="M7" s="41"/>
       <c r="N7" s="60" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O7" s="44"/>
       <c r="P7" s="61" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q7" s="44"/>
       <c r="R7" s="61" t="s">
@@ -9029,32 +9070,32 @@
         <v>66</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H8" s="41" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I8" s="62"/>
       <c r="J8" s="41" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K8" s="41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L8" s="41"/>
       <c r="M8" s="32"/>
       <c r="N8" s="60" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O8" s="44"/>
       <c r="P8" s="61" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="44"/>
       <c r="R8" s="61" t="s">
@@ -9071,38 +9112,38 @@
         <v>84</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D9" s="42" t="s">
         <v>66</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G9" s="32" t="s">
         <v>82</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I9" s="44"/>
       <c r="J9" s="61" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K9" s="61"/>
       <c r="L9" s="61" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M9" s="44"/>
       <c r="N9" s="60" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O9" s="44"/>
       <c r="P9" s="61" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q9" s="44"/>
       <c r="R9" s="61" t="s">
@@ -9126,27 +9167,27 @@
       </c>
       <c r="E10" s="61"/>
       <c r="F10" s="42" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G10" s="32" t="s">
         <v>82</v>
       </c>
       <c r="H10" s="61" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I10" s="61"/>
       <c r="J10" s="61" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K10" s="61"/>
       <c r="L10" s="61"/>
       <c r="M10" s="61"/>
       <c r="N10" s="60" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O10" s="63"/>
       <c r="P10" s="61" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="61"/>
       <c r="R10" s="61" t="s">
@@ -9170,27 +9211,27 @@
       </c>
       <c r="E11" s="61"/>
       <c r="F11" s="42" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G11" s="32" t="s">
         <v>82</v>
       </c>
       <c r="H11" s="61" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I11" s="61"/>
       <c r="J11" s="61" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K11" s="61"/>
       <c r="L11" s="61"/>
       <c r="M11" s="61"/>
       <c r="N11" s="60" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O11" s="63"/>
       <c r="P11" s="61" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q11" s="61"/>
       <c r="R11" s="61" t="s">
@@ -9217,27 +9258,27 @@
   </sheetPr>
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.5263157894737"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.2753036437247"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="80.0161943319838"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="52.3805668016194"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.0242914979757"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.7732793522267"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="82.8016194331984"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="34.4939271255061"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="28.9230769230769"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="34.4939271255061"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1019" min="18" style="0" width="9.10526315789474"/>
@@ -9258,7 +9299,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -9270,25 +9311,25 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>9</v>
@@ -9311,19 +9352,19 @@
         <v>177</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F2" s="57" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G2" s="65" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>176</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J2" s="31" t="n">
         <v>0.4</v>
@@ -9332,10 +9373,10 @@
       <c r="L2" s="31"/>
       <c r="M2" s="31"/>
       <c r="N2" s="44" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O2" s="44" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P2" s="52" t="s">
         <v>22</v>
@@ -9358,19 +9399,19 @@
         <v>181</v>
       </c>
       <c r="E3" s="64" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G3" s="65" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H3" s="31" t="s">
         <v>176</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J3" s="31" t="n">
         <v>0.4</v>
@@ -9379,10 +9420,10 @@
       <c r="L3" s="31"/>
       <c r="M3" s="31"/>
       <c r="N3" s="44" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O3" s="44" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P3" s="52" t="s">
         <v>22</v>
@@ -9391,7 +9432,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>67</v>
       </c>
@@ -9405,19 +9446,19 @@
         <v>183</v>
       </c>
       <c r="E4" s="64" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G4" s="65" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H4" s="31" t="s">
         <v>176</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J4" s="31" t="n">
         <v>0.1</v>
@@ -9426,10 +9467,10 @@
       <c r="L4" s="31"/>
       <c r="M4" s="31"/>
       <c r="N4" s="44" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O4" s="44" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P4" s="52" t="s">
         <v>22</v>
@@ -9452,19 +9493,19 @@
         <v>185</v>
       </c>
       <c r="E5" s="64" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G5" s="65" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H5" s="31" t="s">
         <v>153</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J5" s="31" t="n">
         <v>0.1</v>
@@ -9473,10 +9514,10 @@
       <c r="L5" s="31"/>
       <c r="M5" s="31"/>
       <c r="N5" s="44" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O5" s="44" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P5" s="52" t="s">
         <v>22</v>
@@ -9499,35 +9540,35 @@
         <v>187</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H6" s="32" t="s">
         <v>176</v>
       </c>
       <c r="I6" s="67" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J6" s="67"/>
       <c r="K6" s="68" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L6" s="68" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M6" s="68" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N6" s="44" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O6" s="44" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P6" s="44" t="s">
         <v>22</v>
@@ -9560,19 +9601,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.0242914979757"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.3117408906883"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.5263157894737"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="95.8704453441296"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="99.2995951417004"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="34.4939271255061"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="31.17004048583"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -9591,7 +9632,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -9600,31 +9641,31 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="61" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9635,33 +9676,33 @@
         <v>18</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G2" s="70" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H2" s="70" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I2" s="70" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J2" s="70"/>
       <c r="K2" s="44" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L2" s="56"/>
       <c r="M2" s="56" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N2" s="56"/>
       <c r="O2" s="56" t="s">
@@ -9677,33 +9718,33 @@
         <v>23</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G3" s="70" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H3" s="70" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I3" s="70" t="n">
         <v>2</v>
       </c>
       <c r="J3" s="32"/>
       <c r="K3" s="44" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L3" s="56"/>
       <c r="M3" s="56" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N3" s="56"/>
       <c r="O3" s="56" t="s">
@@ -9719,33 +9760,33 @@
         <v>25</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G4" s="70" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H4" s="70" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I4" s="70" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J4" s="32"/>
       <c r="K4" s="44" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L4" s="56"/>
       <c r="M4" s="56" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N4" s="56"/>
       <c r="O4" s="56" t="s">
@@ -9769,23 +9810,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="92.4453441295547"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="90.8380566801619"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="43.4898785425101"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.5263157894737"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="95.7651821862348"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="94.1578947368421"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="44.7773279352227"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9799,19 +9840,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9828,14 +9872,15 @@
       <c r="E2" s="64" t="n">
         <v>0.25</v>
       </c>
-      <c r="F2" s="44" t="s">
-        <v>336</v>
-      </c>
-      <c r="G2" s="44" t="n">
+      <c r="F2" s="64"/>
+      <c r="G2" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="H2" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="74" t="s">
-        <v>337</v>
+      <c r="I2" s="74" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9852,17 +9897,20 @@
       <c r="E3" s="64" t="n">
         <v>0.166666666666667</v>
       </c>
-      <c r="F3" s="44" t="s">
-        <v>338</v>
-      </c>
-      <c r="G3" s="44" t="n">
+      <c r="F3" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="H3" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="74" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I3" s="74" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="71" t="n">
         <v>42</v>
       </c>
@@ -9876,17 +9924,20 @@
       <c r="E4" s="64" t="n">
         <v>0.166666666666667</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="64" t="s">
         <v>340</v>
       </c>
-      <c r="G4" s="44" t="n">
+      <c r="G4" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="H4" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="H4" s="74" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I4" s="74" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="71" t="n">
         <v>43</v>
       </c>
@@ -9902,14 +9953,17 @@
       <c r="E5" s="64" t="n">
         <v>0.166666666666667</v>
       </c>
-      <c r="F5" s="52" t="s">
-        <v>341</v>
+      <c r="F5" s="64" t="s">
+        <v>340</v>
       </c>
       <c r="G5" s="52" t="s">
+        <v>344</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>345</v>
+      </c>
+      <c r="I5" s="74" t="s">
         <v>342</v>
-      </c>
-      <c r="H5" s="74" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9926,17 +9980,18 @@
       <c r="E6" s="64" t="n">
         <v>0.25</v>
       </c>
-      <c r="F6" s="44" t="s">
-        <v>343</v>
-      </c>
-      <c r="G6" s="44" t="n">
+      <c r="F6" s="64"/>
+      <c r="G6" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="H6" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="H6" s="74" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I6" s="74" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="71" t="n">
         <v>46</v>
       </c>
@@ -9950,17 +10005,18 @@
       <c r="E7" s="64" t="n">
         <v>0.25</v>
       </c>
-      <c r="F7" s="44" t="s">
-        <v>336</v>
-      </c>
-      <c r="G7" s="44" t="n">
+      <c r="F7" s="64"/>
+      <c r="G7" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="H7" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="H7" s="74" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I7" s="74" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="71" t="n">
         <v>47</v>
       </c>
@@ -9974,17 +10030,20 @@
       <c r="E8" s="64" t="n">
         <v>0.166666666666667</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="64" t="s">
         <v>340</v>
       </c>
-      <c r="G8" s="44" t="n">
+      <c r="G8" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="H8" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="H8" s="74" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I8" s="74" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="71" t="n">
         <v>48</v>
       </c>
@@ -10000,17 +10059,20 @@
       <c r="E9" s="64" t="n">
         <v>0.166666666666667</v>
       </c>
-      <c r="F9" s="52" t="s">
-        <v>341</v>
+      <c r="F9" s="64" t="s">
+        <v>340</v>
       </c>
       <c r="G9" s="52" t="s">
+        <v>344</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>345</v>
+      </c>
+      <c r="I9" s="74" t="s">
         <v>342</v>
       </c>
-      <c r="H9" s="74" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="71" t="n">
         <v>49</v>
       </c>
@@ -10024,17 +10086,20 @@
       <c r="E10" s="64" t="n">
         <v>0.166666666666667</v>
       </c>
-      <c r="F10" s="44" t="s">
-        <v>338</v>
-      </c>
-      <c r="G10" s="44" t="n">
+      <c r="F10" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="H10" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="H10" s="74" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I10" s="74" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="71" t="n">
         <v>50</v>
       </c>
@@ -10048,17 +10113,18 @@
       <c r="E11" s="64" t="n">
         <v>0.25</v>
       </c>
-      <c r="F11" s="44" t="s">
-        <v>343</v>
-      </c>
-      <c r="G11" s="44" t="n">
+      <c r="F11" s="64"/>
+      <c r="G11" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="H11" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="H11" s="74" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I11" s="74" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="71" t="n">
         <v>52</v>
       </c>
@@ -10072,17 +10138,18 @@
       <c r="E12" s="64" t="n">
         <v>0.25</v>
       </c>
-      <c r="F12" s="44" t="s">
-        <v>336</v>
-      </c>
-      <c r="G12" s="44" t="n">
+      <c r="F12" s="64"/>
+      <c r="G12" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="H12" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="H12" s="74" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I12" s="74" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="71" t="n">
         <v>53</v>
       </c>
@@ -10096,17 +10163,20 @@
       <c r="E13" s="64" t="n">
         <v>0.166666666666667</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="64" t="s">
         <v>340</v>
       </c>
-      <c r="G13" s="44" t="n">
+      <c r="G13" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="H13" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="H13" s="74" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I13" s="74" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="71" t="n">
         <v>54</v>
       </c>
@@ -10122,17 +10192,20 @@
       <c r="E14" s="64" t="n">
         <v>0.166666666666667</v>
       </c>
-      <c r="F14" s="52" t="s">
-        <v>341</v>
+      <c r="F14" s="64" t="s">
+        <v>340</v>
       </c>
       <c r="G14" s="52" t="s">
+        <v>344</v>
+      </c>
+      <c r="H14" s="52" t="s">
+        <v>345</v>
+      </c>
+      <c r="I14" s="74" t="s">
         <v>342</v>
       </c>
-      <c r="H14" s="74" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="71" t="n">
         <v>55</v>
       </c>
@@ -10146,17 +10219,20 @@
       <c r="E15" s="64" t="n">
         <v>0.166666666666667</v>
       </c>
-      <c r="F15" s="44" t="s">
-        <v>338</v>
-      </c>
-      <c r="G15" s="44" t="n">
+      <c r="F15" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="H15" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="H15" s="74" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I15" s="74" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="71" t="n">
         <v>56</v>
       </c>
@@ -10170,17 +10246,18 @@
       <c r="E16" s="64" t="n">
         <v>0.25</v>
       </c>
-      <c r="F16" s="44" t="s">
-        <v>343</v>
-      </c>
-      <c r="G16" s="44" t="n">
+      <c r="F16" s="64"/>
+      <c r="G16" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="H16" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="H16" s="74" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I16" s="74" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="71" t="n">
         <v>58</v>
       </c>
@@ -10194,17 +10271,18 @@
       <c r="E17" s="64" t="n">
         <v>0.25</v>
       </c>
-      <c r="F17" s="44" t="s">
-        <v>336</v>
-      </c>
-      <c r="G17" s="44" t="n">
+      <c r="F17" s="64"/>
+      <c r="G17" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="H17" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="H17" s="74" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I17" s="74" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="71" t="n">
         <v>59</v>
       </c>
@@ -10218,17 +10296,20 @@
       <c r="E18" s="64" t="n">
         <v>0.166666666666667</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="64" t="s">
         <v>340</v>
       </c>
-      <c r="G18" s="44" t="n">
+      <c r="G18" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="H18" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="H18" s="74" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I18" s="74" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="71" t="n">
         <v>60</v>
       </c>
@@ -10242,17 +10323,20 @@
       <c r="E19" s="64" t="n">
         <v>0.166666666666667</v>
       </c>
-      <c r="F19" s="44" t="s">
-        <v>338</v>
-      </c>
-      <c r="G19" s="44" t="n">
+      <c r="F19" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="H19" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="H19" s="74" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I19" s="74" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="71" t="n">
         <v>61</v>
       </c>
@@ -10268,17 +10352,20 @@
       <c r="E20" s="64" t="n">
         <v>0.166666666666667</v>
       </c>
-      <c r="F20" s="52" t="s">
-        <v>341</v>
+      <c r="F20" s="64" t="s">
+        <v>340</v>
       </c>
       <c r="G20" s="52" t="s">
+        <v>344</v>
+      </c>
+      <c r="H20" s="52" t="s">
+        <v>345</v>
+      </c>
+      <c r="I20" s="74" t="s">
         <v>342</v>
       </c>
-      <c r="H20" s="74" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="71" t="n">
         <v>62</v>
       </c>
@@ -10292,14 +10379,15 @@
       <c r="E21" s="64" t="n">
         <v>0.25</v>
       </c>
-      <c r="F21" s="44" t="s">
-        <v>343</v>
-      </c>
-      <c r="G21" s="44" t="n">
+      <c r="F21" s="64"/>
+      <c r="G21" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="H21" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="H21" s="74" t="s">
-        <v>337</v>
+      <c r="I21" s="74" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCNAYARMX/Data/CCNayarTemplate2020v0.9.4.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplate2020v0.9.4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -88,7 +88,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$82</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatavase_1" vbProcedure="false">KPIs!$A$1:$K$77</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$K$86</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$K$86</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
@@ -106,6 +106,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2945,29 +2946,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="H88" activeCellId="0" sqref="H88"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="E33" activeCellId="1" sqref="E11 E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9595141700405"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="80.0161943319838"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.8502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="98.336032388664"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="190.672064777328"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="80.6599190283401"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.17004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="99.1902834008097"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="192.384615384615"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7125506072875"/>
   </cols>
@@ -3007,7 +3008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="true" ht="61.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="8" customFormat="true" ht="61.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -3035,7 +3036,7 @@
       </c>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" s="12" customFormat="true" ht="61.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="12" customFormat="true" ht="61.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
@@ -3058,7 +3059,7 @@
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="41.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="41.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
@@ -3085,7 +3086,7 @@
       </c>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" customFormat="false" ht="28.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
@@ -3112,7 +3113,7 @@
       </c>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="68.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="68.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
@@ -3139,7 +3140,7 @@
       </c>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
@@ -3166,7 +3167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="51" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
@@ -3193,7 +3194,7 @@
       </c>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="28.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
@@ -3220,7 +3221,7 @@
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
@@ -3247,7 +3248,7 @@
       </c>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
@@ -3272,7 +3273,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" customFormat="false" ht="48" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -3303,7 +3304,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="48" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>11</v>
       </c>
@@ -3326,7 +3327,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" customFormat="false" ht="145" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="145" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>52</v>
       </c>
@@ -3357,7 +3358,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="145" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="145" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>12</v>
       </c>
@@ -3384,7 +3385,7 @@
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" customFormat="false" ht="125" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>13</v>
       </c>
@@ -3411,7 +3412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="125" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>14</v>
       </c>
@@ -3438,7 +3439,7 @@
       </c>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" customFormat="false" ht="32" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>15</v>
       </c>
@@ -3465,7 +3466,7 @@
       </c>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <v>16</v>
       </c>
@@ -3490,7 +3491,7 @@
       </c>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>17</v>
       </c>
@@ -3515,7 +3516,7 @@
       </c>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>18</v>
       </c>
@@ -3540,7 +3541,7 @@
       </c>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <v>19</v>
       </c>
@@ -3565,7 +3566,7 @@
       </c>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
         <v>20</v>
       </c>
@@ -3590,7 +3591,7 @@
       </c>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
         <v>21</v>
       </c>
@@ -3615,7 +3616,7 @@
       </c>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
         <v>22</v>
       </c>
@@ -3642,7 +3643,7 @@
       </c>
       <c r="K25" s="10"/>
     </row>
-    <row r="26" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>83</v>
       </c>
@@ -3665,7 +3666,7 @@
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
         <v>23</v>
       </c>
@@ -3692,7 +3693,7 @@
       </c>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" customFormat="false" ht="39" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
         <v>24</v>
       </c>
@@ -3721,7 +3722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="28.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
         <v>25</v>
       </c>
@@ -3748,7 +3749,7 @@
       </c>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
         <v>26</v>
       </c>
@@ -3775,7 +3776,7 @@
       </c>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>96</v>
       </c>
@@ -3798,7 +3799,7 @@
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" customFormat="false" ht="41.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="41.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
         <v>27</v>
       </c>
@@ -3825,7 +3826,7 @@
       </c>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" customFormat="false" ht="28.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
         <v>28</v>
       </c>
@@ -3854,7 +3855,7 @@
       </c>
       <c r="K33" s="10"/>
     </row>
-    <row r="34" customFormat="false" ht="39" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
         <v>29</v>
       </c>
@@ -3883,7 +3884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="28.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
         <v>30</v>
       </c>
@@ -3912,7 +3913,7 @@
       </c>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
         <v>31</v>
       </c>
@@ -3941,7 +3942,7 @@
       </c>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>108</v>
       </c>
@@ -3966,7 +3967,7 @@
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" customFormat="false" ht="41.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="41.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
         <v>32</v>
       </c>
@@ -3995,7 +3996,7 @@
       </c>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" customFormat="false" ht="28.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
         <v>33</v>
       </c>
@@ -4024,7 +4025,7 @@
       </c>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" customFormat="false" ht="28.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
         <v>34</v>
       </c>
@@ -4057,7 +4058,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
         <v>35</v>
       </c>
@@ -4121,7 +4122,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
         <v>37</v>
       </c>
@@ -4144,7 +4145,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
         <v>38</v>
       </c>
@@ -4175,7 +4176,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
         <v>39</v>
       </c>
@@ -4198,7 +4199,7 @@
       <c r="J45" s="19"/>
       <c r="K45" s="19"/>
     </row>
-    <row r="46" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
         <v>40</v>
       </c>
@@ -4225,7 +4226,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
         <v>41</v>
       </c>
@@ -4252,7 +4253,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
         <v>42</v>
       </c>
@@ -4279,7 +4280,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
         <v>43</v>
       </c>
@@ -4306,7 +4307,7 @@
       <c r="J49" s="19"/>
       <c r="K49" s="19"/>
     </row>
-    <row r="50" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
         <v>44</v>
       </c>
@@ -4333,7 +4334,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
         <v>45</v>
       </c>
@@ -4356,7 +4357,7 @@
       <c r="J51" s="19"/>
       <c r="K51" s="19"/>
     </row>
-    <row r="52" customFormat="false" ht="75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
         <v>46</v>
       </c>
@@ -4383,7 +4384,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" customFormat="false" ht="30" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
         <v>47</v>
       </c>
@@ -4410,7 +4411,7 @@
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" customFormat="false" ht="30" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
         <v>48</v>
       </c>
@@ -4437,7 +4438,7 @@
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" customFormat="false" ht="30" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
         <v>49</v>
       </c>
@@ -4464,7 +4465,7 @@
       <c r="J55" s="19"/>
       <c r="K55" s="19"/>
     </row>
-    <row r="56" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
         <v>50</v>
       </c>
@@ -4491,7 +4492,7 @@
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
     </row>
-    <row r="57" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
         <v>51</v>
       </c>
@@ -4516,7 +4517,7 @@
       <c r="J57" s="19"/>
       <c r="K57" s="19"/>
     </row>
-    <row r="58" customFormat="false" ht="21.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
         <v>52</v>
       </c>
@@ -4543,7 +4544,7 @@
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" customFormat="false" ht="26.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
         <v>53</v>
       </c>
@@ -4570,7 +4571,7 @@
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" customFormat="false" ht="27" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
         <v>54</v>
       </c>
@@ -4597,7 +4598,7 @@
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" customFormat="false" ht="27" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
         <v>55</v>
       </c>
@@ -4624,7 +4625,7 @@
       <c r="J61" s="19"/>
       <c r="K61" s="19"/>
     </row>
-    <row r="62" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
         <v>56</v>
       </c>
@@ -4651,7 +4652,7 @@
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
         <v>57</v>
       </c>
@@ -4674,7 +4675,7 @@
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
     </row>
-    <row r="64" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
         <v>58</v>
       </c>
@@ -4701,7 +4702,7 @@
       <c r="J64" s="10"/>
       <c r="K64" s="10"/>
     </row>
-    <row r="65" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
         <v>59</v>
       </c>
@@ -4728,7 +4729,7 @@
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
     </row>
-    <row r="66" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
         <v>60</v>
       </c>
@@ -4755,7 +4756,7 @@
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
         <v>61</v>
       </c>
@@ -4782,7 +4783,7 @@
       <c r="J67" s="19"/>
       <c r="K67" s="19"/>
     </row>
-    <row r="68" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="n">
         <v>62</v>
       </c>
@@ -4809,7 +4810,7 @@
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
     </row>
-    <row r="69" s="30" customFormat="true" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" s="30" customFormat="true" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="n">
         <v>63</v>
       </c>
@@ -4832,7 +4833,7 @@
       <c r="J69" s="29"/>
       <c r="K69" s="29"/>
     </row>
-    <row r="70" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="n">
         <v>64</v>
       </c>
@@ -4855,7 +4856,7 @@
       <c r="J70" s="19"/>
       <c r="K70" s="19"/>
     </row>
-    <row r="71" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="n">
         <v>65</v>
       </c>
@@ -4886,7 +4887,7 @@
       </c>
       <c r="K71" s="19"/>
     </row>
-    <row r="72" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="n">
         <v>66</v>
       </c>
@@ -4917,7 +4918,7 @@
       </c>
       <c r="K72" s="19"/>
     </row>
-    <row r="73" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="n">
         <v>67</v>
       </c>
@@ -4948,7 +4949,7 @@
       </c>
       <c r="K73" s="19"/>
     </row>
-    <row r="74" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="n">
         <v>68</v>
       </c>
@@ -4979,7 +4980,7 @@
       </c>
       <c r="K74" s="19"/>
     </row>
-    <row r="75" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="n">
         <v>69</v>
       </c>
@@ -5012,7 +5013,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="n">
         <v>70</v>
       </c>
@@ -5035,7 +5036,7 @@
       <c r="J76" s="29"/>
       <c r="K76" s="29"/>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="n">
         <v>71</v>
       </c>
@@ -5064,7 +5065,7 @@
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="n">
         <v>72</v>
       </c>
@@ -5093,7 +5094,7 @@
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
     </row>
-    <row r="79" s="35" customFormat="true" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" s="35" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="n">
         <v>73</v>
       </c>
@@ -5118,7 +5119,7 @@
       <c r="J79" s="19"/>
       <c r="K79" s="19"/>
     </row>
-    <row r="80" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="n">
         <v>74</v>
       </c>
@@ -5147,7 +5148,7 @@
       <c r="J80" s="19"/>
       <c r="K80" s="19"/>
     </row>
-    <row r="81" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="n">
         <v>75</v>
       </c>
@@ -5176,7 +5177,7 @@
       <c r="J81" s="19"/>
       <c r="K81" s="19"/>
     </row>
-    <row r="82" customFormat="false" ht="28.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="n">
         <v>76</v>
       </c>
@@ -5207,7 +5208,7 @@
       <c r="J82" s="19"/>
       <c r="K82" s="19"/>
     </row>
-    <row r="83" customFormat="false" ht="28.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="n">
         <v>77</v>
       </c>
@@ -5232,7 +5233,7 @@
       <c r="J83" s="19"/>
       <c r="K83" s="19"/>
     </row>
-    <row r="84" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="n">
         <v>78</v>
       </c>
@@ -5257,7 +5258,7 @@
       <c r="J84" s="19"/>
       <c r="K84" s="19"/>
     </row>
-    <row r="85" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="10" t="n">
         <v>79</v>
       </c>
@@ -5278,7 +5279,7 @@
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="n">
         <v>80</v>
       </c>
@@ -5310,13 +5311,7 @@
       <c r="K86" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K86">
-    <filterColumn colId="3">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Cattman Portafolio"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K86"/>
   <mergeCells count="1">
     <mergeCell ref="I18:I24"/>
   </mergeCells>
@@ -5339,15 +5334,15 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="1" sqref="E11 A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.4574898785425"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2064777327935"/>
     <col collapsed="false" hidden="false" max="1017" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -5441,16 +5436,16 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="1" sqref="E11 E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.4574898785425"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="32.1376518218623"/>
     <col collapsed="false" hidden="false" max="1019" min="7" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.78542510121457"/>
   </cols>
@@ -5733,21 +5728,21 @@
   </sheetPr>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="E11 D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="89.2307692307692"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="36.5263157894737"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="79.3765182186235"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="53.668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="65.7692307692308"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="89.9797570850202"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="80.0161943319838"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="66.3076923076923"/>
     <col collapsed="false" hidden="false" max="1017" min="12" style="59" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -5872,20 +5867,20 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="E11 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.5222672064777"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="112.153846153846"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="78.3036437246964"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.0607287449393"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="113.117408906883"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="79.0526315789474"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="44.3481781376518"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="44.668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="36.8502024291498"/>
     <col collapsed="false" hidden="false" max="10" min="9" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="65.3441295546559"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="65.8785425101215"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6074,22 +6069,22 @@
   </sheetPr>
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.3117408906883"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.7408906882591"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.2388663967611"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.668016194332"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="139.46963562753"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="111.295546558704"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="44.4534412955466"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="140.647773279352"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="112.368421052632"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="44.7773279352227"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="31.17004048583"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.6761133603239"/>
@@ -6385,7 +6380,7 @@
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>77</v>
       </c>
@@ -6399,7 +6394,7 @@
         <v>197</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>14</v>
@@ -6467,7 +6462,7 @@
         <v>196</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>14</v>
@@ -6627,7 +6622,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="1" sqref="E11 F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6751,19 +6746,19 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="E11 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="61.8056680161943"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="62.3441295546559"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="65.3441295546559"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="56.3441295546559"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="70.0566801619433"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="80.9838056680162"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="65.8785425101215"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="56.7732793522267"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="42.9554655870445"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="70.7004048582996"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="81.7327935222672"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6880,15 +6875,15 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E11 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.2388663967611"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
@@ -6968,7 +6963,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="E11 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6976,11 +6971,11 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="57.3076923076923"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.17004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="57.8461538461538"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -7158,20 +7153,20 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="E11 C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.2024291497976"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="52.0607287449393"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.0283400809717"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.7732793522267"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="144.072874493927"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.6315789473684"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="52.5951417004049"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.2024291497976"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="145.36032388664"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7572,20 +7567,20 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E11 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.5263157894737"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="76.3765182186235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="77.0202429149798"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="98.336032388664"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="99.1902834008097"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="98.336032388664"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="99.1902834008097"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="29.1376518218623"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -7769,27 +7764,27 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="E11 A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="122.222672064777"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="123.295546558704"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="94.9068825910931"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="78.3036437246964"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="114.295546558704"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="49.4898785425101"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="53.2388663967611"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="66.8421052631579"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="95.7651821862348"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="79.0526315789474"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="115.368421052632"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="49.8097165991903"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="53.668016194332"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="67.4858299595142"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="36.8502024291498"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="34.7085020242915"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -8253,7 +8248,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="E11 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8264,14 +8259,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="35.4574898785425"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="55.0607287449393"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="55.5951417004049"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="29.1376518218623"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -8398,17 +8393,17 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="E11 D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.3765182186235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="113.117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.0202429149798"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="114.080971659919"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="89.2307692307692"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="165.392712550607"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="89.9797570850202"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="166.890688259109"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -8670,20 +8665,20 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+      <selection pane="topLeft" activeCell="J3" activeCellId="1" sqref="E11 J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="89.2307692307692"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="81.7327935222672"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="111.404858299595"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="118.473684210526"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="89.9797570850202"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="82.4817813765182"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="112.473684210526"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="119.546558704453"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="59" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="67.4858299595142"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="68.0202429149798"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="59" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="59" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="59" width="13.3886639676113"/>
@@ -9259,26 +9254,26 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+      <selection pane="topLeft" activeCell="J5" activeCellId="1" sqref="E11 J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.0242914979757"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.7732793522267"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="82.8016194331984"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="44.4534412955466"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.0931174089069"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.3481781376518"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.2024291497976"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="83.5546558704453"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="44.7773279352227"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.5222672064777"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="34.7085020242915"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.1376518218623"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="34.7085020242915"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1019" min="18" style="0" width="9.10526315789474"/>
@@ -9596,24 +9591,24 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="E11 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.4534412955466"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.17004048583"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.6356275303644"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="99.2995951417004"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="100.263157894737"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="34.7085020242915"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="31.4939271255061"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -9813,19 +9808,19 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="1" sqref="E11 C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="95.7651821862348"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="94.1578947368421"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="44.7773279352227"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.9554655870445"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="96.6194331983806"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="94.9068825910931"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="45.0971659919028"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>

--- a/Projects/CCNAYARMX/Data/CCNayarTemplate2020v0.9.4.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplate2020v0.9.4.xlsx
@@ -89,7 +89,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatavase_1" vbProcedure="false">KPIs!$A$1:$K$77</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$K$86</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$K$86</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$K$86</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
@@ -107,6 +107,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1934,7 +1935,7 @@
     <t xml:space="preserve">sum</t>
   </si>
   <si>
-    <t xml:space="preserve">Primera posicion,Respeto,SOCI,Cap. Fria,Llenado 75%,Cattman Mercadeo,Precios en cooler </t>
+    <t xml:space="preserve">Primera posicion,Respeto,SOCI,Cap. Fria,Llenado 75%,Cattman Mercadeo,Precios en cooler,Cattman Portafolio</t>
   </si>
   <si>
     <t xml:space="preserve">Puerta Retornabilidad,Bonificacion Plataforma Hidratacion,Ejecucion Sombra</t>
@@ -2946,7 +2947,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L86"/>
@@ -2954,21 +2955,21 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E33" activeCellId="1" sqref="E11 E33"/>
+      <selection pane="bottomLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="80.6599190283401"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.17004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="99.1902834008097"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="192.384615384615"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="81.4089068825911"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="100.048582995951"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="194.101214574899"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7125506072875"/>
   </cols>
@@ -3008,7 +3009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="true" ht="61.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="8" customFormat="true" ht="61.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -3036,7 +3037,7 @@
       </c>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" s="12" customFormat="true" ht="61.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="12" customFormat="true" ht="61.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
@@ -3059,7 +3060,7 @@
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="41.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="41.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
@@ -3086,7 +3087,7 @@
       </c>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="28.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
@@ -3113,7 +3114,7 @@
       </c>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="68.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="68.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
@@ -3140,7 +3141,7 @@
       </c>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
@@ -3167,7 +3168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="51" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
@@ -3194,7 +3195,7 @@
       </c>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="28.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
@@ -3221,7 +3222,7 @@
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
@@ -3248,7 +3249,7 @@
       </c>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
@@ -3273,7 +3274,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="48" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -3304,7 +3305,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="48" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>11</v>
       </c>
@@ -3327,7 +3328,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" customFormat="false" ht="145" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="145" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>52</v>
       </c>
@@ -3358,7 +3359,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="145" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="145" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>12</v>
       </c>
@@ -3385,7 +3386,7 @@
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" customFormat="false" ht="125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="125" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>13</v>
       </c>
@@ -3412,7 +3413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="125" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>14</v>
       </c>
@@ -3439,7 +3440,7 @@
       </c>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="32" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>15</v>
       </c>
@@ -3466,7 +3467,7 @@
       </c>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <v>16</v>
       </c>
@@ -3491,7 +3492,7 @@
       </c>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>17</v>
       </c>
@@ -3516,7 +3517,7 @@
       </c>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>18</v>
       </c>
@@ -3541,7 +3542,7 @@
       </c>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <v>19</v>
       </c>
@@ -3566,7 +3567,7 @@
       </c>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
         <v>20</v>
       </c>
@@ -3591,7 +3592,7 @@
       </c>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
         <v>21</v>
       </c>
@@ -3616,7 +3617,7 @@
       </c>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
         <v>22</v>
       </c>
@@ -3643,7 +3644,7 @@
       </c>
       <c r="K25" s="10"/>
     </row>
-    <row r="26" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>83</v>
       </c>
@@ -3666,7 +3667,7 @@
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
         <v>23</v>
       </c>
@@ -3693,7 +3694,7 @@
       </c>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="39" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
         <v>24</v>
       </c>
@@ -3722,7 +3723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="28.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
         <v>25</v>
       </c>
@@ -3749,7 +3750,7 @@
       </c>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
         <v>26</v>
       </c>
@@ -3776,7 +3777,7 @@
       </c>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>96</v>
       </c>
@@ -3799,7 +3800,7 @@
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" customFormat="false" ht="41.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="41.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
         <v>27</v>
       </c>
@@ -3826,7 +3827,7 @@
       </c>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="28.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
         <v>28</v>
       </c>
@@ -3855,7 +3856,7 @@
       </c>
       <c r="K33" s="10"/>
     </row>
-    <row r="34" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="39" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
         <v>29</v>
       </c>
@@ -3884,7 +3885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="28.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
         <v>30</v>
       </c>
@@ -3913,7 +3914,7 @@
       </c>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
         <v>31</v>
       </c>
@@ -3942,7 +3943,7 @@
       </c>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>108</v>
       </c>
@@ -3967,7 +3968,7 @@
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" customFormat="false" ht="41.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="41.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
         <v>32</v>
       </c>
@@ -3996,7 +3997,7 @@
       </c>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="28.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
         <v>33</v>
       </c>
@@ -4025,7 +4026,7 @@
       </c>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="28.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
         <v>34</v>
       </c>
@@ -4058,7 +4059,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
         <v>35</v>
       </c>
@@ -4122,7 +4123,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
         <v>37</v>
       </c>
@@ -4145,7 +4146,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
         <v>38</v>
       </c>
@@ -4176,7 +4177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
         <v>39</v>
       </c>
@@ -4199,7 +4200,7 @@
       <c r="J45" s="19"/>
       <c r="K45" s="19"/>
     </row>
-    <row r="46" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
         <v>40</v>
       </c>
@@ -4226,7 +4227,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
         <v>41</v>
       </c>
@@ -4253,7 +4254,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
         <v>42</v>
       </c>
@@ -4280,7 +4281,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
         <v>43</v>
       </c>
@@ -4307,7 +4308,7 @@
       <c r="J49" s="19"/>
       <c r="K49" s="19"/>
     </row>
-    <row r="50" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
         <v>44</v>
       </c>
@@ -4334,7 +4335,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
         <v>45</v>
       </c>
@@ -4357,7 +4358,7 @@
       <c r="J51" s="19"/>
       <c r="K51" s="19"/>
     </row>
-    <row r="52" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
         <v>46</v>
       </c>
@@ -4384,7 +4385,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="30" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
         <v>47</v>
       </c>
@@ -4411,7 +4412,7 @@
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="30" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
         <v>48</v>
       </c>
@@ -4438,7 +4439,7 @@
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="30" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
         <v>49</v>
       </c>
@@ -4465,7 +4466,7 @@
       <c r="J55" s="19"/>
       <c r="K55" s="19"/>
     </row>
-    <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
         <v>50</v>
       </c>
@@ -4492,7 +4493,7 @@
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
     </row>
-    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
         <v>51</v>
       </c>
@@ -4517,7 +4518,7 @@
       <c r="J57" s="19"/>
       <c r="K57" s="19"/>
     </row>
-    <row r="58" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="21.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
         <v>52</v>
       </c>
@@ -4544,7 +4545,7 @@
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="26.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
         <v>53</v>
       </c>
@@ -4571,7 +4572,7 @@
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="27" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
         <v>54</v>
       </c>
@@ -4598,7 +4599,7 @@
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="27" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
         <v>55</v>
       </c>
@@ -4625,7 +4626,7 @@
       <c r="J61" s="19"/>
       <c r="K61" s="19"/>
     </row>
-    <row r="62" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
         <v>56</v>
       </c>
@@ -4652,7 +4653,7 @@
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
         <v>57</v>
       </c>
@@ -4675,7 +4676,7 @@
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
     </row>
-    <row r="64" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
         <v>58</v>
       </c>
@@ -4702,7 +4703,7 @@
       <c r="J64" s="10"/>
       <c r="K64" s="10"/>
     </row>
-    <row r="65" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
         <v>59</v>
       </c>
@@ -4729,7 +4730,7 @@
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
     </row>
-    <row r="66" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
         <v>60</v>
       </c>
@@ -4756,7 +4757,7 @@
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
         <v>61</v>
       </c>
@@ -4783,7 +4784,7 @@
       <c r="J67" s="19"/>
       <c r="K67" s="19"/>
     </row>
-    <row r="68" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="n">
         <v>62</v>
       </c>
@@ -4810,7 +4811,7 @@
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
     </row>
-    <row r="69" s="30" customFormat="true" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" s="30" customFormat="true" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="n">
         <v>63</v>
       </c>
@@ -4833,7 +4834,7 @@
       <c r="J69" s="29"/>
       <c r="K69" s="29"/>
     </row>
-    <row r="70" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="n">
         <v>64</v>
       </c>
@@ -4856,7 +4857,7 @@
       <c r="J70" s="19"/>
       <c r="K70" s="19"/>
     </row>
-    <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="n">
         <v>65</v>
       </c>
@@ -4887,7 +4888,7 @@
       </c>
       <c r="K71" s="19"/>
     </row>
-    <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="n">
         <v>66</v>
       </c>
@@ -4918,7 +4919,7 @@
       </c>
       <c r="K72" s="19"/>
     </row>
-    <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="n">
         <v>67</v>
       </c>
@@ -4949,7 +4950,7 @@
       </c>
       <c r="K73" s="19"/>
     </row>
-    <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="n">
         <v>68</v>
       </c>
@@ -4980,7 +4981,7 @@
       </c>
       <c r="K74" s="19"/>
     </row>
-    <row r="75" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="n">
         <v>69</v>
       </c>
@@ -5013,7 +5014,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="n">
         <v>70</v>
       </c>
@@ -5036,7 +5037,7 @@
       <c r="J76" s="29"/>
       <c r="K76" s="29"/>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="n">
         <v>71</v>
       </c>
@@ -5065,7 +5066,7 @@
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="n">
         <v>72</v>
       </c>
@@ -5094,7 +5095,7 @@
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
     </row>
-    <row r="79" s="35" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" s="35" customFormat="true" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="n">
         <v>73</v>
       </c>
@@ -5119,7 +5120,7 @@
       <c r="J79" s="19"/>
       <c r="K79" s="19"/>
     </row>
-    <row r="80" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="n">
         <v>74</v>
       </c>
@@ -5148,7 +5149,7 @@
       <c r="J80" s="19"/>
       <c r="K80" s="19"/>
     </row>
-    <row r="81" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="n">
         <v>75</v>
       </c>
@@ -5177,7 +5178,7 @@
       <c r="J81" s="19"/>
       <c r="K81" s="19"/>
     </row>
-    <row r="82" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="28.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="n">
         <v>76</v>
       </c>
@@ -5208,7 +5209,7 @@
       <c r="J82" s="19"/>
       <c r="K82" s="19"/>
     </row>
-    <row r="83" customFormat="false" ht="28.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="28.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="n">
         <v>77</v>
       </c>
@@ -5233,7 +5234,7 @@
       <c r="J83" s="19"/>
       <c r="K83" s="19"/>
     </row>
-    <row r="84" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="n">
         <v>78</v>
       </c>
@@ -5258,7 +5259,7 @@
       <c r="J84" s="19"/>
       <c r="K84" s="19"/>
     </row>
-    <row r="85" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="10" t="n">
         <v>79</v>
       </c>
@@ -5279,7 +5280,7 @@
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="n">
         <v>80</v>
       </c>
@@ -5311,7 +5312,13 @@
       <c r="K86" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K86"/>
+  <autoFilter ref="A1:K86">
+    <filterColumn colId="3">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Cattman Portafolio"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="I18:I24"/>
   </mergeCells>
@@ -5334,15 +5341,15 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="1" sqref="E11 A10"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.5263157894737"/>
     <col collapsed="false" hidden="false" max="1017" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -5436,16 +5443,16 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="1" sqref="E11 E18"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.6720647773279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="32.3481781376518"/>
     <col collapsed="false" hidden="false" max="1019" min="7" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.78542510121457"/>
   </cols>
@@ -5729,20 +5736,20 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="E11 D3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="89.9797570850202"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="80.0161943319838"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="54.0931174089069"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="66.3076923076923"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="90.8380566801619"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="80.6599190283401"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="54.5222672064777"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="66.9473684210526"/>
     <col collapsed="false" hidden="false" max="1017" min="12" style="59" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -5867,20 +5874,20 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="E11 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.0607287449393"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="113.117408906883"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="79.0526315789474"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.5951417004049"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="114.080971659919"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="79.6963562753036"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="37.17004048583"/>
     <col collapsed="false" hidden="false" max="10" min="9" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="65.8785425101215"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="66.412955465587"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6070,21 +6077,21 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.7408906882591"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.165991902834"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.0931174089069"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="140.647773279352"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="112.368421052632"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="44.7773279352227"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="141.931174089069"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="113.331983805668"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="45.0971659919028"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="31.4939271255061"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.6761133603239"/>
@@ -6622,7 +6629,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="1" sqref="E11 F12"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6746,19 +6753,19 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="E11 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="62.3441295546559"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="62.8785425101215"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="65.8785425101215"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="56.7732793522267"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="42.9554655870445"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="70.7004048582996"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="81.7327935222672"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="66.412955465587"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="57.3076923076923"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="43.3846153846154"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="71.2348178137652"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="82.4817813765182"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6875,15 +6882,15 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E11 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.5627530364373"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
@@ -6963,7 +6970,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="E11 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6971,11 +6978,11 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="57.8461538461538"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.4898785425101"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="58.3805668016194"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.7044534412955"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -7153,20 +7160,20 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="E11 C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.6315789473684"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="52.5951417004049"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.2429149797571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.2024291497976"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="145.36032388664"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.0242914979757"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.4574898785425"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.6315789473684"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="146.643724696356"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7567,20 +7574,20 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E11 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="77.0202429149798"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="77.6599190283401"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.6356275303644"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="99.1902834008097"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="100.048582995951"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="99.1902834008097"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="100.048582995951"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="29.3522267206478"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -7764,27 +7771,27 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="E11 A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="123.295546558704"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="124.473684210526"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="95.7651821862348"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="79.0526315789474"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="115.368421052632"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="49.8097165991903"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="53.668016194332"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="67.4858299595142"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="96.6194331983806"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="116.331983805668"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="50.2388663967611"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="68.0202429149798"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="37.17004048583"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="34.919028340081"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -8248,7 +8255,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="E11 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8259,14 +8266,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="39.6356275303644"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="35.6720647773279"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="55.5951417004049"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="56.0242914979757"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="29.3522267206478"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -8393,17 +8400,17 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="E11 D8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.0202429149798"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="114.080971659919"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.6599190283401"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="115.153846153846"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="89.9797570850202"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="166.890688259109"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="90.8380566801619"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="168.392712550607"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -8665,20 +8672,20 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="1" sqref="E11 J3"/>
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="89.9797570850202"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="82.4817813765182"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="112.473684210526"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="119.546558704453"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="90.8380566801619"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="83.1255060728745"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="113.437246963563"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="120.615384615385"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="59" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="68.0202429149798"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="68.5546558704453"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="59" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="59" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="59" width="13.3886639676113"/>
@@ -9254,26 +9261,26 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="1" sqref="E11 J5"/>
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.3481781376518"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.2024291497976"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="83.5546558704453"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.6356275303644"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="44.7773279352227"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.5222672064777"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.6315789473684"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="84.3036437246964"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.0971659919028"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="55.0607287449393"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="34.919028340081"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.3522267206478"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="34.919028340081"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1019" min="18" style="0" width="9.10526315789474"/>
@@ -9591,24 +9598,24 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="E11 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.4534412955466"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.8785425101215"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.4939271255061"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.9554655870445"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="100.263157894737"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="101.121457489879"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="34.919028340081"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="31.7085020242915"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -9808,19 +9815,19 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="1" sqref="E11 C17"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.9554655870445"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="96.6194331983806"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="94.9068825910931"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="45.0971659919028"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.3846153846154"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="97.4777327935223"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="95.7651821862348"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="45.5263157894737"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>

--- a/Projects/CCNAYARMX/Data/CCNayarTemplate2020v0.9.4.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplate2020v0.9.4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -90,7 +90,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$K$86</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$K$86</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$K$86</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$K$86</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
@@ -108,6 +108,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2952,24 +2953,24 @@
   </sheetPr>
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
+      <selection pane="bottomLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="81.4089068825911"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="100.048582995951"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="194.101214574899"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="82.1619433198381"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="100.906882591093"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="195.919028340081"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.9230769230769"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7125506072875"/>
   </cols>
@@ -4090,7 +4091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
         <v>36</v>
       </c>
@@ -4857,7 +4858,7 @@
       <c r="J70" s="19"/>
       <c r="K70" s="19"/>
     </row>
-    <row r="71" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="n">
         <v>65</v>
       </c>
@@ -4888,7 +4889,7 @@
       </c>
       <c r="K71" s="19"/>
     </row>
-    <row r="72" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="n">
         <v>66</v>
       </c>
@@ -4919,7 +4920,7 @@
       </c>
       <c r="K72" s="19"/>
     </row>
-    <row r="73" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="n">
         <v>67</v>
       </c>
@@ -4950,7 +4951,7 @@
       </c>
       <c r="K73" s="19"/>
     </row>
-    <row r="74" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="n">
         <v>68</v>
       </c>
@@ -4981,7 +4982,7 @@
       </c>
       <c r="K74" s="19"/>
     </row>
-    <row r="75" customFormat="false" ht="14.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="n">
         <v>69</v>
       </c>
@@ -5280,7 +5281,7 @@
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="n">
         <v>80</v>
       </c>
@@ -5313,9 +5314,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K86">
-    <filterColumn colId="3">
+    <filterColumn colId="7">
       <customFilters and="true">
-        <customFilter operator="equal" val="Cattman Portafolio"/>
+        <customFilter operator="equal" val="Availability"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
@@ -5347,9 +5348,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.9919028340081"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3117408906883"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.8502024291498"/>
     <col collapsed="false" hidden="false" max="1017" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -5449,10 +5450,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.9919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.5263157894737"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.3117408906883"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="32.5627530364372"/>
     <col collapsed="false" hidden="false" max="1019" min="7" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.78542510121457"/>
   </cols>
@@ -5742,14 +5743,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="90.8380566801619"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="37.17004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="80.6599190283401"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="54.5222672064777"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="33.5263157894737"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="66.9473684210526"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="91.6923076923077"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="81.4089068825911"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="55.0607287449393"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="67.5910931174089"/>
     <col collapsed="false" hidden="false" max="1017" min="12" style="59" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -5880,14 +5881,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.5951417004049"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="114.080971659919"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="115.153846153846"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="80.3400809716599"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="44.9919028340081"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="37.4898785425101"/>
     <col collapsed="false" hidden="false" max="10" min="9" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="66.412955465587"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="67.0566801619433"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6076,7 +6077,7 @@
   </sheetPr>
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -6084,14 +6085,14 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.165991902834"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.4898785425101"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.5222672064777"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="141.931174089069"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="113.331983805668"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="45.0971659919028"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="143.218623481781"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="114.295546558704"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="45.5263157894737"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="31.7085020242915"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.6761133603239"/>
@@ -6759,13 +6760,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="62.8785425101215"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="63.412955465587"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="66.412955465587"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="57.3076923076923"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="71.2348178137652"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="82.4817813765182"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="67.0566801619433"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="57.8461538461538"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="71.8785425101215"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="83.1255060728745"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6889,8 +6890,8 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.8825910931174"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
@@ -6978,11 +6979,11 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="58.3805668016194"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.7044534412955"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="58.8097165991903"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -7167,13 +7168,13 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.0607287449393"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.0242914979757"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.8825910931174"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.4574898785425"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.6315789473684"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="146.643724696356"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.4534412955466"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.2064777327935"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="148.036437246964"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7580,14 +7581,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.17004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="77.6599190283401"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="78.3036437246964"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="100.048582995951"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="100.906882591093"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="100.048582995951"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="100.906882591093"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="29.5668016194332"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -7777,21 +7778,21 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="124.473684210526"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="125.542510121458"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="96.6194331983806"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="79.6963562753036"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="116.331983805668"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="50.2388663967611"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="54.0931174089069"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="68.0202429149798"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="97.4777327935223"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="80.3400809716599"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="117.400809716599"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="50.668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="54.5222672064777"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="68.5546558704453"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="37.4898785425101"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="35.1336032388664"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -8266,14 +8267,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="35.9919028340081"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="36.3117408906883"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="56.4534412955466"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="29.5668016194332"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -8406,11 +8407,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.6599190283401"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="115.153846153846"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.3036437246964"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="116.117408906883"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="90.8380566801619"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="168.392712550607"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="91.6923076923077"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="169.995951417004"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -8678,14 +8679,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="90.8380566801619"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="83.1255060728745"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="113.437246963563"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="120.615384615385"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="91.6923076923077"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="83.8744939271255"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="114.404858299595"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="121.793522267206"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="59" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="68.5546558704453"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="69.0931174089069"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="59" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="59" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="59" width="13.3886639676113"/>
@@ -9260,27 +9261,27 @@
   </sheetPr>
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.6315789473684"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="84.3036437246964"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.0971659919028"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="55.0607287449393"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.0607287449393"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="85.0526315789474"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.5263157894737"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="55.5951417004049"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.1336032388664"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.5668016194332"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="35.1336032388664"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1019" min="18" style="0" width="9.10526315789474"/>
@@ -9603,19 +9604,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.8785425101215"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.7085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.2753036437247"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="101.121457489879"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="101.975708502024"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.1336032388664"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="31.9230769230769"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -9821,13 +9822,13 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="97.4777327935223"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.5263157894737"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="95.7651821862348"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="45.5263157894737"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="98.336032388664"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="96.6194331983806"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="45.9554655870445"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
